--- a/info_chat.xlsx
+++ b/info_chat.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="31">
   <si>
     <t>fecha</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Viernes</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
   </si>
 </sst>
 </file>
@@ -517,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,14 +720,14 @@
         <v>2</v>
       </c>
       <c r="P3" s="8" t="str">
-        <f t="shared" ref="P3:P66" si="0">IF(O3&gt;0,"Si","No")</f>
+        <f>IF(O3&gt;0,"Si","No")</f>
         <v>Si</v>
       </c>
       <c r="Q3" s="8">
         <v>0</v>
       </c>
       <c r="R3" s="8" t="str">
-        <f t="shared" ref="R3:R66" si="1">IF(Q3&gt;0,"Si","No")</f>
+        <f>IF(Q3&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -733,23 +739,23 @@
         <v>24</v>
       </c>
       <c r="C4" s="6">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0.37916666666666665</v>
+        <v>0.375</v>
       </c>
       <c r="E4" s="7">
-        <v>0.38055555555555554</v>
+        <v>0.37847222222222227</v>
       </c>
       <c r="F4" s="7">
         <f>+E4-D4</f>
-        <v>1.388888888888884E-3</v>
+        <v>3.4722222222222654E-3</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>21</v>
@@ -761,28 +767,28 @@
         <v>1</v>
       </c>
       <c r="L4" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M4" s="8">
         <f>+L4+K4</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N4" s="8" t="str">
         <f>IF(K4=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <f>IF(O4&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q4" s="8">
         <v>0</v>
       </c>
       <c r="R4" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q4&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -794,39 +800,39 @@
         <v>24</v>
       </c>
       <c r="C5" s="6">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>0.38611111111111113</v>
+        <v>0.37916666666666665</v>
       </c>
       <c r="E5" s="7">
-        <v>0.38819444444444445</v>
+        <v>0.38055555555555554</v>
       </c>
       <c r="F5" s="7">
         <f>+E5-D5</f>
-        <v>2.0833333333333259E-3</v>
+        <v>1.388888888888884E-3</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M5" s="8">
         <f>+L5+K5</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N5" s="8" t="str">
         <f>IF(K5=0,"Lectura","Interacción")</f>
@@ -836,14 +842,14 @@
         <v>0</v>
       </c>
       <c r="P5" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O5&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q5" s="8">
         <v>0</v>
       </c>
       <c r="R5" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q5&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -855,17 +861,17 @@
         <v>24</v>
       </c>
       <c r="C6" s="6">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>0.40069444444444446</v>
+        <v>0.38611111111111113</v>
       </c>
       <c r="E6" s="7">
-        <v>0.40902777777777777</v>
+        <v>0.38819444444444445</v>
       </c>
       <c r="F6" s="7">
         <f>+E6-D6</f>
-        <v>8.3333333333333037E-3</v>
+        <v>2.0833333333333259E-3</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>22</v>
@@ -877,17 +883,17 @@
         <v>20</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M6" s="8">
         <f>+L6+K6</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N6" s="8" t="str">
         <f>IF(K6=0,"Lectura","Interacción")</f>
@@ -897,14 +903,14 @@
         <v>0</v>
       </c>
       <c r="P6" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O6&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q6" s="8">
         <v>0</v>
       </c>
       <c r="R6" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q6&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -916,23 +922,23 @@
         <v>24</v>
       </c>
       <c r="C7" s="6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>0.42638888888888887</v>
+        <v>0.40069444444444446</v>
       </c>
       <c r="E7" s="7">
-        <v>0.42708333333333331</v>
+        <v>0.40902777777777777</v>
       </c>
       <c r="F7" s="7">
         <f>+E7-D7</f>
-        <v>6.9444444444444198E-4</v>
+        <v>8.3333333333333037E-3</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>20</v>
@@ -941,10 +947,10 @@
         <v>20</v>
       </c>
       <c r="K7" s="8">
+        <v>4</v>
+      </c>
+      <c r="L7" s="8">
         <v>2</v>
-      </c>
-      <c r="L7" s="8">
-        <v>4</v>
       </c>
       <c r="M7" s="8">
         <f>+L7+K7</f>
@@ -958,14 +964,14 @@
         <v>0</v>
       </c>
       <c r="P7" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O7&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q7" s="8">
         <v>0</v>
       </c>
       <c r="R7" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q7&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -977,23 +983,23 @@
         <v>24</v>
       </c>
       <c r="C8" s="6">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>0.42986111111111108</v>
+        <v>0.42638888888888887</v>
       </c>
       <c r="E8" s="7">
-        <v>0.44722222222222219</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="F8" s="7">
         <f>+E8-D8</f>
-        <v>1.7361111111111105E-2</v>
+        <v>6.9444444444444198E-4</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>20</v>
@@ -1002,31 +1008,31 @@
         <v>20</v>
       </c>
       <c r="K8" s="8">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L8" s="8">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="M8" s="8">
         <f>+L8+K8</f>
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="N8" s="8" t="str">
         <f>IF(K8=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
+        <f>IF(O8&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q8" s="8">
         <v>0</v>
       </c>
       <c r="R8" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q8&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -1038,23 +1044,23 @@
         <v>24</v>
       </c>
       <c r="C9" s="6">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7">
-        <v>0.44236111111111115</v>
+        <v>0.42986111111111108</v>
       </c>
       <c r="E9" s="7">
-        <v>0.4777777777777778</v>
+        <v>0.44722222222222219</v>
       </c>
       <c r="F9" s="7">
         <f>+E9-D9</f>
-        <v>3.5416666666666652E-2</v>
+        <v>1.7361111111111105E-2</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>20</v>
@@ -1063,14 +1069,14 @@
         <v>20</v>
       </c>
       <c r="K9" s="8">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="L9" s="8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M9" s="8">
         <f>+L9+K9</f>
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="N9" s="8" t="str">
         <f>IF(K9=0,"Lectura","Interacción")</f>
@@ -1080,14 +1086,14 @@
         <v>1</v>
       </c>
       <c r="P9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O9&gt;0,"Si","No")</f>
         <v>Si</v>
       </c>
       <c r="Q9" s="8">
         <v>0</v>
       </c>
       <c r="R9" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q9&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -1099,17 +1105,17 @@
         <v>24</v>
       </c>
       <c r="C10" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
         <v>0.44236111111111115</v>
       </c>
       <c r="E10" s="7">
-        <v>0.46388888888888885</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="F10" s="7">
         <f>+E10-D10</f>
-        <v>2.1527777777777701E-2</v>
+        <v>3.5416666666666652E-2</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>18</v>
@@ -1118,20 +1124,20 @@
         <v>19</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="8">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L10" s="8">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M10" s="8">
         <f>+L10+K10</f>
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="N10" s="8" t="str">
         <f>IF(K10=0,"Lectura","Interacción")</f>
@@ -1141,14 +1147,14 @@
         <v>1</v>
       </c>
       <c r="P10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O10&gt;0,"Si","No")</f>
         <v>Si</v>
       </c>
       <c r="Q10" s="8">
         <v>0</v>
       </c>
       <c r="R10" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q10&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -1160,17 +1166,17 @@
         <v>24</v>
       </c>
       <c r="C11" s="6">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>0.45624999999999999</v>
+        <v>0.44236111111111115</v>
       </c>
       <c r="E11" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.46388888888888885</v>
       </c>
       <c r="F11" s="7">
         <f>+E11-D11</f>
-        <v>2.0833333333333259E-3</v>
+        <v>2.1527777777777701E-2</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>18</v>
@@ -1185,31 +1191,31 @@
         <v>20</v>
       </c>
       <c r="K11" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11" s="8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M11" s="8">
         <f>+L11+K11</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N11" s="8" t="str">
         <f>IF(K11=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <f>IF(O11&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q11" s="8">
         <v>0</v>
       </c>
       <c r="R11" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q11&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -1221,39 +1227,39 @@
         <v>24</v>
       </c>
       <c r="C12" s="6">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>0.46597222222222223</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="E12" s="7">
-        <v>0.4770833333333333</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F12" s="7">
         <f>+E12-D12</f>
-        <v>1.1111111111111072E-2</v>
+        <v>2.0833333333333259E-3</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L12" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M12" s="8">
         <f>+L12+K12</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N12" s="8" t="str">
         <f>IF(K12=0,"Lectura","Interacción")</f>
@@ -1263,14 +1269,14 @@
         <v>0</v>
       </c>
       <c r="P12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O12&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q12" s="8">
         <v>0</v>
       </c>
       <c r="R12" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q12&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -1282,17 +1288,17 @@
         <v>24</v>
       </c>
       <c r="C13" s="6">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>0.47152777777777777</v>
+        <v>0.46597222222222223</v>
       </c>
       <c r="E13" s="7">
-        <v>0.52638888888888891</v>
+        <v>0.4770833333333333</v>
       </c>
       <c r="F13" s="7">
         <f>+E13-D13</f>
-        <v>5.4861111111111138E-2</v>
+        <v>1.1111111111111072E-2</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>22</v>
@@ -1307,14 +1313,14 @@
         <v>20</v>
       </c>
       <c r="K13" s="8">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="L13" s="8">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="M13" s="8">
         <f>+L13+K13</f>
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="N13" s="8" t="str">
         <f>IF(K13=0,"Lectura","Interacción")</f>
@@ -1324,14 +1330,14 @@
         <v>0</v>
       </c>
       <c r="P13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O13&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q13" s="8">
         <v>0</v>
       </c>
       <c r="R13" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q13&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -1343,17 +1349,17 @@
         <v>24</v>
       </c>
       <c r="C14" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>0.47222222222222227</v>
+        <v>0.47152777777777777</v>
       </c>
       <c r="E14" s="7">
-        <v>0.4777777777777778</v>
+        <v>0.52638888888888891</v>
       </c>
       <c r="F14" s="7">
         <f>+E14-D14</f>
-        <v>5.5555555555555358E-3</v>
+        <v>5.4861111111111138E-2</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -1368,14 +1374,14 @@
         <v>20</v>
       </c>
       <c r="K14" s="8">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="L14" s="8">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M14" s="8">
         <f>+L14+K14</f>
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N14" s="8" t="str">
         <f>IF(K14=0,"Lectura","Interacción")</f>
@@ -1385,14 +1391,14 @@
         <v>0</v>
       </c>
       <c r="P14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O14&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q14" s="8">
         <v>0</v>
       </c>
       <c r="R14" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q14&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -1407,20 +1413,20 @@
         <v>9</v>
       </c>
       <c r="D15" s="7">
-        <v>0.4770833333333333</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E15" s="7">
-        <v>0.4826388888888889</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="F15" s="7">
         <f>+E15-D15</f>
-        <v>5.5555555555555913E-3</v>
+        <v>5.5555555555555358E-3</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>20</v>
@@ -1429,14 +1435,14 @@
         <v>20</v>
       </c>
       <c r="K15" s="8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L15" s="8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M15" s="8">
         <f>+L15+K15</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N15" s="8" t="str">
         <f>IF(K15=0,"Lectura","Interacción")</f>
@@ -1446,14 +1452,14 @@
         <v>0</v>
       </c>
       <c r="P15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O15&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q15" s="8">
         <v>0</v>
       </c>
       <c r="R15" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q15&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -1465,17 +1471,17 @@
         <v>24</v>
       </c>
       <c r="C16" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>0.48333333333333334</v>
+        <v>0.4770833333333333</v>
       </c>
       <c r="E16" s="7">
-        <v>0.4909722222222222</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="F16" s="7">
         <f>+E16-D16</f>
-        <v>7.6388888888888618E-3</v>
+        <v>5.5555555555555913E-3</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>18</v>
@@ -1484,37 +1490,37 @@
         <v>19</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K16" s="8">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L16" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M16" s="8">
         <f>+L16+K16</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N16" s="8" t="str">
         <f>IF(K16=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O16" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
+        <f>IF(O16&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q16" s="8">
         <v>0</v>
       </c>
       <c r="R16" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q16&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -1526,39 +1532,39 @@
         <v>24</v>
       </c>
       <c r="C17" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0.60138888888888886</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="E17" s="7">
-        <v>0.64166666666666672</v>
+        <v>0.4909722222222222</v>
       </c>
       <c r="F17" s="7">
         <f>+E17-D17</f>
-        <v>4.0277777777777857E-2</v>
+        <v>7.6388888888888618E-3</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K17" s="8">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="L17" s="8">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="M17" s="8">
         <f>+L17+K17</f>
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="N17" s="8" t="str">
         <f>IF(K17=0,"Lectura","Interacción")</f>
@@ -1568,14 +1574,14 @@
         <v>2</v>
       </c>
       <c r="P17" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O17&gt;0,"Si","No")</f>
         <v>Si</v>
       </c>
       <c r="Q17" s="8">
         <v>0</v>
       </c>
       <c r="R17" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q17&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -1587,17 +1593,17 @@
         <v>24</v>
       </c>
       <c r="C18" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>0.60763888888888895</v>
+        <v>0.60138888888888886</v>
       </c>
       <c r="E18" s="7">
-        <v>0.73333333333333339</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="F18" s="7">
         <f>+E18-D18</f>
-        <v>0.12569444444444444</v>
+        <v>4.0277777777777857E-2</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>22</v>
@@ -1612,31 +1618,31 @@
         <v>20</v>
       </c>
       <c r="K18" s="8">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="L18" s="8">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M18" s="8">
         <f>+L18+K18</f>
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N18" s="8" t="str">
         <f>IF(K18=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O18" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <f>IF(O18&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q18" s="8">
         <v>0</v>
       </c>
       <c r="R18" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q18&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -1648,56 +1654,56 @@
         <v>24</v>
       </c>
       <c r="C19" s="6">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>0.60972222222222217</v>
+        <v>0.60763888888888895</v>
       </c>
       <c r="E19" s="7">
-        <v>0.61041666666666672</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="F19" s="7">
         <f>+E19-D19</f>
-        <v>6.94444444444553E-4</v>
+        <v>0.12569444444444444</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="8">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L19" s="8">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="M19" s="8">
         <f>+L19+K19</f>
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="N19" s="8" t="str">
         <f>IF(K19=0,"Lectura","Interacción")</f>
-        <v>Lectura</v>
+        <v>Interacción</v>
       </c>
       <c r="O19" s="8">
         <v>0</v>
       </c>
       <c r="P19" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O19&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q19" s="8">
         <v>0</v>
       </c>
       <c r="R19" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q19&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -1709,23 +1715,23 @@
         <v>24</v>
       </c>
       <c r="C20" s="6">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D20" s="7">
-        <v>0.63888888888888895</v>
+        <v>0.60972222222222217</v>
       </c>
       <c r="E20" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.61041666666666672</v>
       </c>
       <c r="F20" s="7">
         <f>+E20-D20</f>
-        <v>2.7777777777777679E-2</v>
+        <v>6.94444444444553E-4</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>21</v>
@@ -1737,11 +1743,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M20" s="8">
         <f>+L20+K20</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N20" s="8" t="str">
         <f>IF(K20=0,"Lectura","Interacción")</f>
@@ -1751,14 +1757,14 @@
         <v>0</v>
       </c>
       <c r="P20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O20&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q20" s="8">
         <v>0</v>
       </c>
       <c r="R20" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q20&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -1770,23 +1776,23 @@
         <v>24</v>
       </c>
       <c r="C21" s="6">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D21" s="7">
-        <v>0.68680555555555556</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="E21" s="7">
-        <v>0.72916666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F21" s="7">
         <f>+E21-D21</f>
-        <v>4.2361111111111072E-2</v>
+        <v>2.7777777777777679E-2</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>21</v>
@@ -1795,32 +1801,32 @@
         <v>20</v>
       </c>
       <c r="K21" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L21" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M21" s="8">
         <f>+L21+K21</f>
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="N21" s="8" t="str">
         <f>IF(K21=0,"Lectura","Interacción")</f>
-        <v>Interacción</v>
+        <v>Lectura</v>
       </c>
       <c r="O21" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
+        <f>IF(O21&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q21" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R21" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Si</v>
+        <f>IF(Q21&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
@@ -1831,20 +1837,20 @@
         <v>24</v>
       </c>
       <c r="C22" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>0.70624999999999993</v>
+        <v>0.68680555555555556</v>
       </c>
       <c r="E22" s="7">
-        <v>0.70763888888888893</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F22" s="7">
         <f>+E22-D22</f>
-        <v>1.388888888888995E-3</v>
+        <v>4.2361111111111072E-2</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>19</v>
@@ -1856,29 +1862,32 @@
         <v>20</v>
       </c>
       <c r="K22" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L22" s="8">
-        <v>11</v>
-      </c>
-      <c r="M22" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="M22" s="8">
+        <f>+L22+K22</f>
+        <v>23</v>
+      </c>
       <c r="N22" s="8" t="str">
         <f>IF(K22=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O22" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <f>IF(O22&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q22" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R22" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
+        <f>IF(Q22&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -1889,40 +1898,37 @@
         <v>24</v>
       </c>
       <c r="C23" s="6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D23" s="7">
-        <v>0.78263888888888899</v>
+        <v>0.70624999999999993</v>
       </c>
       <c r="E23" s="7">
-        <v>0.78402777777777777</v>
+        <v>0.70763888888888893</v>
       </c>
       <c r="F23" s="7">
         <f>+E23-D23</f>
-        <v>1.3888888888887729E-3</v>
+        <v>1.388888888888995E-3</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L23" s="8">
-        <v>3</v>
-      </c>
-      <c r="M23" s="8">
-        <f>+L23+K23</f>
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="M23" s="8"/>
       <c r="N23" s="8" t="str">
         <f>IF(K23=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
@@ -1931,36 +1937,36 @@
         <v>0</v>
       </c>
       <c r="P23" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O23&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q23" s="8">
         <v>0</v>
       </c>
       <c r="R23" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q23&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <v>44502</v>
+        <v>44501</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="6">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>0.29791666666666666</v>
+        <v>0.78263888888888899</v>
       </c>
       <c r="E24" s="7">
-        <v>0.2986111111111111</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="F24" s="7">
         <f>+E24-D24</f>
-        <v>6.9444444444444198E-4</v>
+        <v>1.3888888888887729E-3</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>18</v>
@@ -1969,37 +1975,37 @@
         <v>19</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K24" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L24" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" s="8">
         <f>+L24+K24</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N24" s="8" t="str">
         <f>IF(K24=0,"Lectura","Interacción")</f>
-        <v>Lectura</v>
+        <v>Interacción</v>
       </c>
       <c r="O24" s="8">
         <v>0</v>
       </c>
       <c r="P24" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O24&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q24" s="8">
         <v>0</v>
       </c>
       <c r="R24" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q24&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -2011,20 +2017,20 @@
         <v>25</v>
       </c>
       <c r="C25" s="6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D25" s="7">
-        <v>0.33263888888888887</v>
+        <v>0.29791666666666666</v>
       </c>
       <c r="E25" s="7">
-        <v>0.38263888888888892</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="F25" s="7">
         <f>+E25-D25</f>
-        <v>5.0000000000000044E-2</v>
+        <v>6.9444444444444198E-4</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>19</v>
@@ -2036,28 +2042,31 @@
         <v>20</v>
       </c>
       <c r="K25" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L25" s="8">
-        <v>5</v>
-      </c>
-      <c r="M25" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="M25" s="8">
+        <f>+L25+K25</f>
+        <v>2</v>
+      </c>
       <c r="N25" s="8" t="str">
         <f>IF(K25=0,"Lectura","Interacción")</f>
-        <v>Interacción</v>
+        <v>Lectura</v>
       </c>
       <c r="O25" s="8">
         <v>0</v>
       </c>
       <c r="P25" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O25&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q25" s="8">
         <v>0</v>
       </c>
       <c r="R25" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q25&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -2069,40 +2078,37 @@
         <v>25</v>
       </c>
       <c r="C26" s="6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D26" s="7">
-        <v>0.34861111111111115</v>
+        <v>0.33263888888888887</v>
       </c>
       <c r="E26" s="7">
-        <v>0.34930555555555554</v>
+        <v>0.38263888888888892</v>
       </c>
       <c r="F26" s="7">
         <f>+E26-D26</f>
-        <v>6.9444444444438647E-4</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K26" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L26" s="8">
-        <v>3</v>
-      </c>
-      <c r="M26" s="8">
-        <f>+L26+K26</f>
         <v>5</v>
       </c>
+      <c r="M26" s="8"/>
       <c r="N26" s="8" t="str">
         <f>IF(K26=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
@@ -2111,14 +2117,14 @@
         <v>0</v>
       </c>
       <c r="P26" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O26&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q26" s="8">
         <v>0</v>
       </c>
       <c r="R26" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q26&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -2130,17 +2136,17 @@
         <v>25</v>
       </c>
       <c r="C27" s="6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D27" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.34861111111111115</v>
       </c>
       <c r="E27" s="7">
-        <v>0.40277777777777773</v>
+        <v>0.34930555555555554</v>
       </c>
       <c r="F27" s="7">
         <f>+E27-D27</f>
-        <v>6.9444444444444198E-3</v>
+        <v>6.9444444444438647E-4</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>22</v>
@@ -2155,14 +2161,14 @@
         <v>20</v>
       </c>
       <c r="K27" s="8">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L27" s="8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M27" s="8">
         <f>+L27+K27</f>
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="N27" s="8" t="str">
         <f>IF(K27=0,"Lectura","Interacción")</f>
@@ -2172,14 +2178,14 @@
         <v>0</v>
       </c>
       <c r="P27" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O27&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q27" s="8">
         <v>0</v>
       </c>
       <c r="R27" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q27&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -2191,17 +2197,17 @@
         <v>25</v>
       </c>
       <c r="C28" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" s="7">
-        <v>0.4201388888888889</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E28" s="7">
-        <v>0.43055555555555558</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="F28" s="7">
         <f>+E28-D28</f>
-        <v>1.0416666666666685E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>22</v>
@@ -2216,14 +2222,14 @@
         <v>20</v>
       </c>
       <c r="K28" s="8">
+        <v>12</v>
+      </c>
+      <c r="L28" s="8">
         <v>10</v>
-      </c>
-      <c r="L28" s="8">
-        <v>1</v>
       </c>
       <c r="M28" s="8">
         <f>+L28+K28</f>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N28" s="8" t="str">
         <f>IF(K28=0,"Lectura","Interacción")</f>
@@ -2233,14 +2239,14 @@
         <v>0</v>
       </c>
       <c r="P28" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O28&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q28" s="8">
         <v>0</v>
       </c>
       <c r="R28" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q28&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -2252,17 +2258,17 @@
         <v>25</v>
       </c>
       <c r="C29" s="6">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D29" s="7">
-        <v>0.42986111111111108</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="E29" s="7">
-        <v>0.44305555555555554</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="F29" s="7">
         <f>+E29-D29</f>
-        <v>1.3194444444444453E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>22</v>
@@ -2271,20 +2277,20 @@
         <v>23</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K29" s="8">
+        <v>10</v>
+      </c>
+      <c r="L29" s="8">
         <v>1</v>
-      </c>
-      <c r="L29" s="8">
-        <v>24</v>
       </c>
       <c r="M29" s="8">
         <f>+L29+K29</f>
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="N29" s="8" t="str">
         <f>IF(K29=0,"Lectura","Interacción")</f>
@@ -2294,14 +2300,14 @@
         <v>0</v>
       </c>
       <c r="P29" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O29&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q29" s="8">
         <v>0</v>
       </c>
       <c r="R29" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q29&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -2313,17 +2319,17 @@
         <v>25</v>
       </c>
       <c r="C30" s="6">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D30" s="7">
-        <v>0.43472222222222223</v>
+        <v>0.42986111111111108</v>
       </c>
       <c r="E30" s="7">
-        <v>0.50972222222222219</v>
+        <v>0.44305555555555554</v>
       </c>
       <c r="F30" s="7">
         <f>+E30-D30</f>
-        <v>7.4999999999999956E-2</v>
+        <v>1.3194444444444453E-2</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>22</v>
@@ -2332,37 +2338,37 @@
         <v>23</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K30" s="8">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="L30" s="8">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M30" s="8">
         <f>+L30+K30</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N30" s="8" t="str">
         <f>IF(K30=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O30" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
+        <f>IF(O30&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q30" s="8">
         <v>0</v>
       </c>
       <c r="R30" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q30&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -2374,56 +2380,56 @@
         <v>25</v>
       </c>
       <c r="C31" s="6">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D31" s="7">
-        <v>0.44027777777777777</v>
+        <v>0.43472222222222223</v>
       </c>
       <c r="E31" s="7">
-        <v>0.44375000000000003</v>
+        <v>0.50972222222222219</v>
       </c>
       <c r="F31" s="7">
         <f>+E31-D31</f>
-        <v>3.4722222222222654E-3</v>
+        <v>7.4999999999999956E-2</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K31" s="8">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L31" s="8">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M31" s="8">
         <f>+L31+K31</f>
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="N31" s="8" t="str">
         <f>IF(K31=0,"Lectura","Interacción")</f>
-        <v>Lectura</v>
+        <v>Interacción</v>
       </c>
       <c r="O31" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <f>IF(O31&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q31" s="8">
         <v>0</v>
       </c>
       <c r="R31" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q31&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -2438,14 +2444,14 @@
         <v>21</v>
       </c>
       <c r="D32" s="7">
-        <v>0.45347222222222222</v>
+        <v>0.44027777777777777</v>
       </c>
       <c r="E32" s="7">
-        <v>0.46111111111111108</v>
+        <v>0.44375000000000003</v>
       </c>
       <c r="F32" s="7">
         <f>+E32-D32</f>
-        <v>7.6388888888888618E-3</v>
+        <v>3.4722222222222654E-3</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>18</v>
@@ -2460,31 +2466,31 @@
         <v>20</v>
       </c>
       <c r="K32" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M32" s="8">
         <f>+L32+K32</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N32" s="8" t="str">
         <f>IF(K32=0,"Lectura","Interacción")</f>
-        <v>Interacción</v>
+        <v>Lectura</v>
       </c>
       <c r="O32" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
+        <f>IF(O32&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q32" s="8">
         <v>0</v>
       </c>
       <c r="R32" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q32&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -2496,56 +2502,56 @@
         <v>25</v>
       </c>
       <c r="C33" s="6">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D33" s="7">
-        <v>0.50208333333333333</v>
+        <v>0.45347222222222222</v>
       </c>
       <c r="E33" s="7">
-        <v>0.51666666666666672</v>
+        <v>0.46111111111111108</v>
       </c>
       <c r="F33" s="7">
         <f>+E33-D33</f>
-        <v>1.4583333333333393E-2</v>
+        <v>7.6388888888888618E-3</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K33" s="8">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L33" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M33" s="8">
         <f>+L33+K33</f>
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="N33" s="8" t="str">
         <f>IF(K33=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O33" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <f>IF(O33&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q33" s="8">
         <v>0</v>
       </c>
       <c r="R33" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q33&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -2557,17 +2563,17 @@
         <v>25</v>
       </c>
       <c r="C34" s="6">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>0.58333333333333337</v>
+        <v>0.50208333333333333</v>
       </c>
       <c r="E34" s="7">
-        <v>0.59305555555555556</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="F34" s="7">
         <f>+E34-D34</f>
-        <v>9.7222222222221877E-3</v>
+        <v>1.4583333333333393E-2</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>22</v>
@@ -2582,14 +2588,14 @@
         <v>20</v>
       </c>
       <c r="K34" s="8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L34" s="8">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="M34" s="8">
         <f>+L34+K34</f>
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="N34" s="8" t="str">
         <f>IF(K34=0,"Lectura","Interacción")</f>
@@ -2599,14 +2605,14 @@
         <v>0</v>
       </c>
       <c r="P34" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O34&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q34" s="8">
         <v>0</v>
       </c>
       <c r="R34" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q34&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -2618,23 +2624,23 @@
         <v>25</v>
       </c>
       <c r="C35" s="6">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D35" s="7">
-        <v>0.59791666666666665</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E35" s="7">
-        <v>0.59930555555555554</v>
+        <v>0.59305555555555556</v>
       </c>
       <c r="F35" s="7">
         <f>+E35-D35</f>
-        <v>1.388888888888884E-3</v>
+        <v>9.7222222222221877E-3</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>20</v>
@@ -2643,14 +2649,14 @@
         <v>20</v>
       </c>
       <c r="K35" s="8">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L35" s="8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M35" s="8">
         <f>+L35+K35</f>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="N35" s="8" t="str">
         <f>IF(K35=0,"Lectura","Interacción")</f>
@@ -2660,14 +2666,14 @@
         <v>0</v>
       </c>
       <c r="P35" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O35&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q35" s="8">
         <v>0</v>
       </c>
       <c r="R35" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q35&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -2679,17 +2685,17 @@
         <v>25</v>
       </c>
       <c r="C36" s="6">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D36" s="7">
-        <v>0.61111111111111105</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="E36" s="7">
-        <v>0.63680555555555551</v>
+        <v>0.59930555555555554</v>
       </c>
       <c r="F36" s="7">
         <f>+E36-D36</f>
-        <v>2.5694444444444464E-2</v>
+        <v>1.388888888888884E-3</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>18</v>
@@ -2704,14 +2710,14 @@
         <v>20</v>
       </c>
       <c r="K36" s="8">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="L36" s="8">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M36" s="8">
         <f>+L36+K36</f>
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="N36" s="8" t="str">
         <f>IF(K36=0,"Lectura","Interacción")</f>
@@ -2721,14 +2727,14 @@
         <v>0</v>
       </c>
       <c r="P36" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O36&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q36" s="8">
         <v>0</v>
       </c>
       <c r="R36" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q36&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -2740,39 +2746,39 @@
         <v>25</v>
       </c>
       <c r="C37" s="6">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D37" s="7">
-        <v>0.62291666666666667</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="E37" s="7">
-        <v>0.6333333333333333</v>
+        <v>0.63680555555555551</v>
       </c>
       <c r="F37" s="7">
         <f>+E37-D37</f>
-        <v>1.041666666666663E-2</v>
+        <v>2.5694444444444464E-2</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K37" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L37" s="8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M37" s="8">
         <f>+L37+K37</f>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N37" s="8" t="str">
         <f>IF(K37=0,"Lectura","Interacción")</f>
@@ -2782,14 +2788,14 @@
         <v>0</v>
       </c>
       <c r="P37" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O37&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q37" s="8">
         <v>0</v>
       </c>
       <c r="R37" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q37&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -2801,17 +2807,17 @@
         <v>25</v>
       </c>
       <c r="C38" s="6">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D38" s="7">
-        <v>0.62986111111111109</v>
+        <v>0.62291666666666667</v>
       </c>
       <c r="E38" s="7">
-        <v>0.64097222222222217</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="F38" s="7">
         <f>+E38-D38</f>
-        <v>1.1111111111111072E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>22</v>
@@ -2823,17 +2829,17 @@
         <v>20</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K38" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L38" s="8">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M38" s="8">
         <f>+L38+K38</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N38" s="8" t="str">
         <f>IF(K38=0,"Lectura","Interacción")</f>
@@ -2843,14 +2849,14 @@
         <v>0</v>
       </c>
       <c r="P38" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O38&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q38" s="8">
         <v>0</v>
       </c>
       <c r="R38" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q38&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -2862,39 +2868,39 @@
         <v>25</v>
       </c>
       <c r="C39" s="6">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D39" s="7">
-        <v>0.63541666666666663</v>
+        <v>0.62986111111111109</v>
       </c>
       <c r="E39" s="7">
-        <v>0.63888888888888895</v>
+        <v>0.64097222222222217</v>
       </c>
       <c r="F39" s="7">
         <f>+E39-D39</f>
-        <v>3.4722222222223209E-3</v>
+        <v>1.1111111111111072E-2</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K39" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L39" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M39" s="8">
         <f>+L39+K39</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N39" s="8" t="str">
         <f>IF(K39=0,"Lectura","Interacción")</f>
@@ -2904,14 +2910,14 @@
         <v>0</v>
       </c>
       <c r="P39" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O39&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q39" s="8">
         <v>0</v>
       </c>
       <c r="R39" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q39&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -2923,17 +2929,17 @@
         <v>25</v>
       </c>
       <c r="C40" s="6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D40" s="7">
-        <v>0.69027777777777777</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="E40" s="7">
-        <v>0.71180555555555547</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="F40" s="7">
         <f>+E40-D40</f>
-        <v>2.1527777777777701E-2</v>
+        <v>3.4722222222223209E-3</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>18</v>
@@ -2942,20 +2948,20 @@
         <v>19</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K40" s="8">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="L40" s="8">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="M40" s="8">
         <f>+L40+K40</f>
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="N40" s="8" t="str">
         <f>IF(K40=0,"Lectura","Interacción")</f>
@@ -2965,14 +2971,14 @@
         <v>0</v>
       </c>
       <c r="P40" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O40&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q40" s="8">
         <v>0</v>
       </c>
       <c r="R40" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q40&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -2984,17 +2990,17 @@
         <v>25</v>
       </c>
       <c r="C41" s="6">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D41" s="7">
-        <v>0.69791666666666663</v>
+        <v>0.69027777777777777</v>
       </c>
       <c r="E41" s="7">
-        <v>0.69861111111111107</v>
+        <v>0.71180555555555547</v>
       </c>
       <c r="F41" s="7">
         <f>+E41-D41</f>
-        <v>6.9444444444444198E-4</v>
+        <v>2.1527777777777701E-2</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>18</v>
@@ -3009,14 +3015,14 @@
         <v>20</v>
       </c>
       <c r="K41" s="8">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="L41" s="8">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="M41" s="8">
         <f>+L41+K41</f>
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="N41" s="8" t="str">
         <f>IF(K41=0,"Lectura","Interacción")</f>
@@ -3026,14 +3032,14 @@
         <v>0</v>
       </c>
       <c r="P41" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O41&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q41" s="8">
         <v>0</v>
       </c>
       <c r="R41" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q41&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -3045,17 +3051,17 @@
         <v>25</v>
       </c>
       <c r="C42" s="6">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D42" s="7">
-        <v>0.71875</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="E42" s="7">
-        <v>0.74513888888888891</v>
+        <v>0.69861111111111107</v>
       </c>
       <c r="F42" s="7">
         <f>+E42-D42</f>
-        <v>2.6388888888888906E-2</v>
+        <v>6.9444444444444198E-4</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>18</v>
@@ -3064,7 +3070,7 @@
         <v>19</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>20</v>
@@ -3073,28 +3079,28 @@
         <v>2</v>
       </c>
       <c r="L42" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M42" s="8">
         <f>+L42+K42</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N42" s="8" t="str">
         <f>IF(K42=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O42" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P42" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
+        <f>IF(O42&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q42" s="8">
         <v>0</v>
       </c>
       <c r="R42" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q42&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -3106,17 +3112,17 @@
         <v>25</v>
       </c>
       <c r="C43" s="6">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D43" s="7">
-        <v>0.78472222222222221</v>
+        <v>0.71875</v>
       </c>
       <c r="E43" s="7">
-        <v>0.7944444444444444</v>
+        <v>0.74513888888888891</v>
       </c>
       <c r="F43" s="7">
         <f>+E43-D43</f>
-        <v>9.7222222222221877E-3</v>
+        <v>2.6388888888888906E-2</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>18</v>
@@ -3125,37 +3131,37 @@
         <v>19</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K43" s="8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L43" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M43" s="8">
         <f>+L43+K43</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N43" s="8" t="str">
         <f>IF(K43=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O43" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P43" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <f>IF(O43&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q43" s="8">
         <v>0</v>
       </c>
       <c r="R43" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q43&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -3167,17 +3173,17 @@
         <v>25</v>
       </c>
       <c r="C44" s="6">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D44" s="7">
-        <v>0.85555555555555562</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="E44" s="7">
-        <v>1.2729166666666667</v>
+        <v>0.7944444444444444</v>
       </c>
       <c r="F44" s="7">
         <f>+E44-D44</f>
-        <v>0.41736111111111107</v>
+        <v>9.7222222222221877E-3</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>18</v>
@@ -3186,20 +3192,20 @@
         <v>19</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K44" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L44" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M44" s="8">
         <f>+L44+K44</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N44" s="8" t="str">
         <f>IF(K44=0,"Lectura","Interacción")</f>
@@ -3209,14 +3215,14 @@
         <v>0</v>
       </c>
       <c r="P44" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O44&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q44" s="8">
         <v>0</v>
       </c>
       <c r="R44" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q44&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -3228,17 +3234,17 @@
         <v>25</v>
       </c>
       <c r="C45" s="6">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D45" s="7">
-        <v>0.87638888888888899</v>
+        <v>0.85555555555555562</v>
       </c>
       <c r="E45" s="7">
-        <v>0.87638888888888899</v>
+        <v>1.2729166666666667</v>
       </c>
       <c r="F45" s="7">
         <f>+E45-D45</f>
-        <v>0</v>
+        <v>0.41736111111111107</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>18</v>
@@ -3247,99 +3253,98 @@
         <v>19</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K45" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M45" s="8">
         <f>+L45+K45</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N45" s="8" t="str">
         <f>IF(K45=0,"Lectura","Interacción")</f>
-        <v>Lectura</v>
+        <v>Interacción</v>
       </c>
       <c r="O45" s="8">
         <v>0</v>
       </c>
       <c r="P45" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O45&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q45" s="8">
         <v>0</v>
       </c>
       <c r="R45" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q45&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
-        <v>44503</v>
+        <v>44502</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C46" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D46" s="7">
-        <v>0.30486111111111108</v>
+        <v>0.87638888888888899</v>
       </c>
       <c r="E46" s="7">
-        <v>0.39861111111111108</v>
+        <v>0.87638888888888899</v>
       </c>
       <c r="F46" s="7">
         <f>+E46-D46</f>
-        <v>9.375E-2</v>
+        <v>0</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K46" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L46" s="8">
-        <f>18+5</f>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="M46" s="8">
         <f>+L46+K46</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="N46" s="8" t="str">
         <f>IF(K46=0,"Lectura","Interacción")</f>
-        <v>Interacción</v>
+        <v>Lectura</v>
       </c>
       <c r="O46" s="8">
         <v>0</v>
       </c>
       <c r="P46" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O46&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q46" s="8">
         <v>0</v>
       </c>
       <c r="R46" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q46&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -3351,17 +3356,17 @@
         <v>26</v>
       </c>
       <c r="C47" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D47" s="7">
-        <v>0.3840277777777778</v>
+        <v>0.30486111111111108</v>
       </c>
       <c r="E47" s="7">
-        <v>0.38680555555555557</v>
+        <v>0.39861111111111108</v>
       </c>
       <c r="F47" s="7">
         <f>+E47-D47</f>
-        <v>2.7777777777777679E-3</v>
+        <v>9.375E-2</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>22</v>
@@ -3370,20 +3375,21 @@
         <v>19</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K47" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L47" s="8">
-        <v>4</v>
+        <f>18+5</f>
+        <v>23</v>
       </c>
       <c r="M47" s="8">
         <f>+L47+K47</f>
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="N47" s="8" t="str">
         <f>IF(K47=0,"Lectura","Interacción")</f>
@@ -3393,14 +3399,14 @@
         <v>0</v>
       </c>
       <c r="P47" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O47&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q47" s="8">
         <v>0</v>
       </c>
       <c r="R47" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q47&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -3412,23 +3418,23 @@
         <v>26</v>
       </c>
       <c r="C48" s="6">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D48" s="7">
-        <v>0.40625</v>
+        <v>0.3840277777777778</v>
       </c>
       <c r="E48" s="7">
-        <v>0.44513888888888892</v>
+        <v>0.38680555555555557</v>
       </c>
       <c r="F48" s="7">
         <f>+E48-D48</f>
-        <v>3.8888888888888917E-2</v>
+        <v>2.7777777777777679E-3</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>20</v>
@@ -3437,31 +3443,31 @@
         <v>20</v>
       </c>
       <c r="K48" s="8">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L48" s="8">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="M48" s="8">
         <f>+L48+K48</f>
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N48" s="8" t="str">
         <f>IF(K48=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O48" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
+        <f>IF(O48&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q48" s="8">
         <v>0</v>
       </c>
       <c r="R48" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q48&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -3473,23 +3479,23 @@
         <v>26</v>
       </c>
       <c r="C49" s="6">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D49" s="7">
-        <v>0.41944444444444445</v>
+        <v>0.40625</v>
       </c>
       <c r="E49" s="7">
-        <v>0.43055555555555558</v>
+        <v>0.44513888888888892</v>
       </c>
       <c r="F49" s="7">
         <f>+E49-D49</f>
-        <v>1.1111111111111127E-2</v>
+        <v>3.8888888888888917E-2</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>20</v>
@@ -3498,31 +3504,31 @@
         <v>20</v>
       </c>
       <c r="K49" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L49" s="8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="M49" s="8">
         <f>+L49+K49</f>
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N49" s="8" t="str">
         <f>IF(K49=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O49" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <f>IF(O49&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q49" s="8">
         <v>0</v>
       </c>
       <c r="R49" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q49&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -3534,17 +3540,17 @@
         <v>26</v>
       </c>
       <c r="C50" s="6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D50" s="7">
-        <v>0.44375000000000003</v>
+        <v>0.41944444444444445</v>
       </c>
       <c r="E50" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="F50" s="7">
         <f>+E50-D50</f>
-        <v>1.4583333333333282E-2</v>
+        <v>1.1111111111111127E-2</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>18</v>
@@ -3553,20 +3559,20 @@
         <v>19</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K50" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L50" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M50" s="8">
         <f>+L50+K50</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N50" s="8" t="str">
         <f>IF(K50=0,"Lectura","Interacción")</f>
@@ -3576,14 +3582,14 @@
         <v>0</v>
       </c>
       <c r="P50" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O50&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q50" s="8">
         <v>0</v>
       </c>
       <c r="R50" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q50&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -3595,56 +3601,56 @@
         <v>26</v>
       </c>
       <c r="C51" s="6">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D51" s="7">
-        <v>0.46180555555555558</v>
+        <v>0.44375000000000003</v>
       </c>
       <c r="E51" s="7">
-        <v>0.47430555555555554</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F51" s="7">
         <f>+E51-D51</f>
-        <v>1.2499999999999956E-2</v>
+        <v>1.4583333333333282E-2</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K51" s="8">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L51" s="8">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="M51" s="8">
         <f>+L51+K51</f>
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="N51" s="8" t="str">
         <f>IF(K51=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O51" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P51" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
+        <f>IF(O51&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q51" s="8">
         <v>0</v>
       </c>
       <c r="R51" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q51&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -3656,17 +3662,17 @@
         <v>26</v>
       </c>
       <c r="C52" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D52" s="7">
-        <v>0.46458333333333335</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="E52" s="7">
-        <v>0.59305555555555556</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="F52" s="7">
         <f>+E52-D52</f>
-        <v>0.12847222222222221</v>
+        <v>1.2499999999999956E-2</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>22</v>
@@ -3681,31 +3687,31 @@
         <v>20</v>
       </c>
       <c r="K52" s="8">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L52" s="8">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="M52" s="8">
         <f>+L52+K52</f>
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N52" s="8" t="str">
         <f>IF(K52=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O52" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P52" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O52&gt;0,"Si","No")</f>
         <v>Si</v>
       </c>
       <c r="Q52" s="8">
         <v>0</v>
       </c>
       <c r="R52" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q52&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -3717,23 +3723,23 @@
         <v>26</v>
       </c>
       <c r="C53" s="6">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D53" s="7">
-        <v>0.49722222222222223</v>
+        <v>0.46458333333333335</v>
       </c>
       <c r="E53" s="7">
-        <v>0.4993055555555555</v>
+        <v>0.59305555555555556</v>
       </c>
       <c r="F53" s="7">
         <f>+E53-D53</f>
-        <v>2.0833333333332704E-3</v>
+        <v>0.12847222222222221</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I53" s="8" t="s">
         <v>20</v>
@@ -3742,31 +3748,31 @@
         <v>20</v>
       </c>
       <c r="K53" s="8">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="L53" s="8">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="M53" s="8">
         <f>+L53+K53</f>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="N53" s="8" t="str">
         <f>IF(K53=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O53" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P53" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <f>IF(O53&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q53" s="8">
         <v>0</v>
       </c>
       <c r="R53" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q53&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -3778,56 +3784,56 @@
         <v>26</v>
       </c>
       <c r="C54" s="6">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D54" s="7">
-        <v>0.51111111111111118</v>
+        <v>0.49722222222222223</v>
       </c>
       <c r="E54" s="7">
-        <v>0.51250000000000007</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="F54" s="7">
         <f>+E54-D54</f>
-        <v>1.388888888888884E-3</v>
+        <v>2.0833333333332704E-3</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K54" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L54" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M54" s="8">
         <f>+L54+K54</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N54" s="8" t="str">
         <f>IF(K54=0,"Lectura","Interacción")</f>
-        <v>Lectura</v>
+        <v>Interacción</v>
       </c>
       <c r="O54" s="8">
         <v>0</v>
       </c>
       <c r="P54" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O54&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q54" s="8">
         <v>0</v>
       </c>
       <c r="R54" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q54&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -3839,56 +3845,56 @@
         <v>26</v>
       </c>
       <c r="C55" s="6">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D55" s="7">
-        <v>0.51527777777777783</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="E55" s="7">
-        <v>0.51736111111111105</v>
+        <v>0.51250000000000007</v>
       </c>
       <c r="F55" s="7">
         <f>+E55-D55</f>
-        <v>2.0833333333332149E-3</v>
+        <v>1.388888888888884E-3</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K55" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L55" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M55" s="8">
         <f>+L55+K55</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N55" s="8" t="str">
         <f>IF(K55=0,"Lectura","Interacción")</f>
-        <v>Interacción</v>
+        <v>Lectura</v>
       </c>
       <c r="O55" s="8">
         <v>0</v>
       </c>
       <c r="P55" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O55&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q55" s="8">
         <v>0</v>
       </c>
       <c r="R55" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q55&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -3900,17 +3906,17 @@
         <v>26</v>
       </c>
       <c r="C56" s="6">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D56" s="7">
-        <v>0.52222222222222225</v>
+        <v>0.51527777777777783</v>
       </c>
       <c r="E56" s="7">
-        <v>0.53402777777777777</v>
+        <v>0.51736111111111105</v>
       </c>
       <c r="F56" s="7">
         <f>+E56-D56</f>
-        <v>1.1805555555555514E-2</v>
+        <v>2.0833333333332149E-3</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>22</v>
@@ -3925,31 +3931,31 @@
         <v>20</v>
       </c>
       <c r="K56" s="8">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L56" s="8">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M56" s="8">
         <f>+L56+K56</f>
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N56" s="8" t="str">
         <f>IF(K56=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O56" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
+        <f>IF(O56&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q56" s="8">
         <v>0</v>
       </c>
       <c r="R56" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q56&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -3961,56 +3967,56 @@
         <v>26</v>
       </c>
       <c r="C57" s="6">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D57" s="7">
-        <v>0.58888888888888891</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="E57" s="7">
-        <v>0.62013888888888891</v>
+        <v>0.53402777777777777</v>
       </c>
       <c r="F57" s="7">
         <f>+E57-D57</f>
-        <v>3.125E-2</v>
+        <v>1.1805555555555514E-2</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J57" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K57" s="8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L57" s="8">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M57" s="8">
         <f>+L57+K57</f>
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="N57" s="8" t="str">
         <f>IF(K57=0,"Lectura","Interacción")</f>
-        <v>Lectura</v>
+        <v>Interacción</v>
       </c>
       <c r="O57" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <f>IF(O57&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q57" s="8">
         <v>0</v>
       </c>
       <c r="R57" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q57&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4022,20 +4028,20 @@
         <v>26</v>
       </c>
       <c r="C58" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D58" s="7">
-        <v>0.61111111111111105</v>
+        <v>0.58888888888888891</v>
       </c>
       <c r="E58" s="7">
-        <v>0.61458333333333337</v>
+        <v>0.62013888888888891</v>
       </c>
       <c r="F58" s="7">
         <f>+E58-D58</f>
-        <v>3.4722222222223209E-3</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>19</v>
@@ -4047,31 +4053,31 @@
         <v>20</v>
       </c>
       <c r="K58" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L58" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M58" s="8">
         <f>+L58+K58</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N58" s="8" t="str">
         <f>IF(K58=0,"Lectura","Interacción")</f>
-        <v>Interacción</v>
+        <v>Lectura</v>
       </c>
       <c r="O58" s="8">
         <v>0</v>
       </c>
       <c r="P58" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O58&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q58" s="8">
         <v>0</v>
       </c>
       <c r="R58" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q58&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4083,17 +4089,17 @@
         <v>26</v>
       </c>
       <c r="C59" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D59" s="7">
-        <v>0.61388888888888882</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="E59" s="7">
-        <v>0.61388888888888882</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="F59" s="7">
         <f>+E59-D59</f>
-        <v>0</v>
+        <v>3.4722222222223209E-3</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>18</v>
@@ -4108,31 +4114,31 @@
         <v>20</v>
       </c>
       <c r="K59" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L59" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M59" s="8">
         <f>+L59+K59</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N59" s="8" t="str">
         <f>IF(K59=0,"Lectura","Interacción")</f>
-        <v>Lectura</v>
+        <v>Interacción</v>
       </c>
       <c r="O59" s="8">
         <v>0</v>
       </c>
       <c r="P59" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O59&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q59" s="8">
         <v>0</v>
       </c>
       <c r="R59" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q59&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4144,56 +4150,56 @@
         <v>26</v>
       </c>
       <c r="C60" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D60" s="7">
-        <v>0.62152777777777779</v>
+        <v>0.61388888888888882</v>
       </c>
       <c r="E60" s="7">
-        <v>0.62708333333333333</v>
+        <v>0.61388888888888882</v>
       </c>
       <c r="F60" s="7">
         <f>+E60-D60</f>
-        <v>5.5555555555555358E-3</v>
+        <v>0</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K60" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L60" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M60" s="8">
         <f>+L60+K60</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N60" s="8" t="str">
         <f>IF(K60=0,"Lectura","Interacción")</f>
-        <v>Interacción</v>
+        <v>Lectura</v>
       </c>
       <c r="O60" s="8">
         <v>0</v>
       </c>
       <c r="P60" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O60&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q60" s="8">
         <v>0</v>
       </c>
       <c r="R60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q60&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4205,29 +4211,29 @@
         <v>26</v>
       </c>
       <c r="C61" s="6">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D61" s="7">
-        <v>0.71597222222222223</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="E61" s="7">
-        <v>0.71666666666666667</v>
+        <v>0.62708333333333333</v>
       </c>
       <c r="F61" s="7">
         <f>+E61-D61</f>
-        <v>6.9444444444444198E-4</v>
+        <v>5.5555555555555358E-3</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I61" s="8" t="s">
         <v>20</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K61" s="8">
         <v>3</v>
@@ -4247,14 +4253,14 @@
         <v>0</v>
       </c>
       <c r="P61" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O61&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q61" s="8">
         <v>0</v>
       </c>
       <c r="R61" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q61&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4266,56 +4272,56 @@
         <v>26</v>
       </c>
       <c r="C62" s="6">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D62" s="7">
-        <v>0.72361111111111109</v>
+        <v>0.71597222222222223</v>
       </c>
       <c r="E62" s="7">
-        <v>0.72569444444444453</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="F62" s="7">
         <f>+E62-D62</f>
-        <v>2.083333333333437E-3</v>
+        <v>6.9444444444444198E-4</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J62" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K62" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L62" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M62" s="8">
         <f>+L62+K62</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N62" s="8" t="str">
         <f>IF(K62=0,"Lectura","Interacción")</f>
-        <v>Lectura</v>
+        <v>Interacción</v>
       </c>
       <c r="O62" s="8">
         <v>0</v>
       </c>
       <c r="P62" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O62&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q62" s="8">
         <v>0</v>
       </c>
       <c r="R62" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q62&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4327,23 +4333,23 @@
         <v>26</v>
       </c>
       <c r="C63" s="6">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D63" s="7">
-        <v>0.78888888888888886</v>
+        <v>0.72361111111111109</v>
       </c>
       <c r="E63" s="7">
-        <v>0.80555555555555547</v>
+        <v>0.72569444444444453</v>
       </c>
       <c r="F63" s="7">
         <f>+E63-D63</f>
-        <v>1.6666666666666607E-2</v>
+        <v>2.083333333333437E-3</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I63" s="8" t="s">
         <v>21</v>
@@ -4352,31 +4358,31 @@
         <v>20</v>
       </c>
       <c r="K63" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L63" s="8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M63" s="8">
         <f>+L63+K63</f>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N63" s="8" t="str">
         <f>IF(K63=0,"Lectura","Interacción")</f>
-        <v>Interacción</v>
+        <v>Lectura</v>
       </c>
       <c r="O63" s="8">
         <v>0</v>
       </c>
       <c r="P63" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O63&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q63" s="8">
         <v>0</v>
       </c>
       <c r="R63" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q63&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4388,17 +4394,17 @@
         <v>26</v>
       </c>
       <c r="C64" s="6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D64" s="7">
-        <v>0.81458333333333333</v>
+        <v>0.78888888888888886</v>
       </c>
       <c r="E64" s="7">
-        <v>0.81874999999999998</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="F64" s="7">
         <f>+E64-D64</f>
-        <v>4.1666666666666519E-3</v>
+        <v>1.6666666666666607E-2</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>18</v>
@@ -4407,37 +4413,37 @@
         <v>19</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J64" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K64" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L64" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M64" s="8">
         <f>+L64+K64</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N64" s="8" t="str">
         <f>IF(K64=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O64" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
+        <f>IF(O64&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q64" s="8">
         <v>0</v>
       </c>
       <c r="R64" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q64&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4449,17 +4455,17 @@
         <v>26</v>
       </c>
       <c r="C65" s="6">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D65" s="7">
-        <v>0.81805555555555554</v>
+        <v>0.81458333333333333</v>
       </c>
       <c r="E65" s="7">
-        <v>0.83819444444444446</v>
+        <v>0.81874999999999998</v>
       </c>
       <c r="F65" s="7">
         <f>+E65-D65</f>
-        <v>2.0138888888888928E-2</v>
+        <v>4.1666666666666519E-3</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>18</v>
@@ -4468,38 +4474,38 @@
         <v>19</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J65" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K65" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L65" s="8">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="M65" s="8">
         <f>+L65+K65</f>
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N65" s="8" t="str">
         <f>IF(K65=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O65" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <f>IF(O65&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q65" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Si</v>
+        <f>IF(Q65&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
@@ -4510,17 +4516,17 @@
         <v>26</v>
       </c>
       <c r="C66" s="6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D66" s="7">
-        <v>0.8569444444444444</v>
+        <v>0.81805555555555554</v>
       </c>
       <c r="E66" s="7">
-        <v>0.875</v>
+        <v>0.83819444444444446</v>
       </c>
       <c r="F66" s="7">
         <f>+E66-D66</f>
-        <v>1.8055555555555602E-2</v>
+        <v>2.0138888888888928E-2</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>18</v>
@@ -4538,28 +4544,28 @@
         <v>3</v>
       </c>
       <c r="L66" s="8">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M66" s="8">
         <f>+L66+K66</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N66" s="8" t="str">
         <f>IF(K66=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O66" s="8">
+        <v>0</v>
+      </c>
+      <c r="P66" s="8" t="str">
+        <f>IF(O66&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q66" s="8">
         <v>1</v>
       </c>
-      <c r="P66" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
-      </c>
-      <c r="Q66" s="8">
-        <v>3</v>
-      </c>
       <c r="R66" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q66&gt;0,"Si","No")</f>
         <v>Si</v>
       </c>
     </row>
@@ -4571,17 +4577,17 @@
         <v>26</v>
       </c>
       <c r="C67" s="6">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D67" s="7">
-        <v>0.94097222222222221</v>
+        <v>0.8569444444444444</v>
       </c>
       <c r="E67" s="7">
-        <v>0.94791666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="F67" s="7">
         <f>+E67-D67</f>
-        <v>6.9444444444444198E-3</v>
+        <v>1.8055555555555602E-2</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>18</v>
@@ -4596,10 +4602,10 @@
         <v>20</v>
       </c>
       <c r="K67" s="8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L67" s="8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M67" s="8">
         <f>+L67+K67</f>
@@ -4610,18 +4616,18 @@
         <v>Interacción</v>
       </c>
       <c r="O67" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" s="8" t="str">
-        <f t="shared" ref="P67:P103" si="2">IF(O67&gt;0,"Si","No")</f>
-        <v>No</v>
+        <f>IF(O67&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q67" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R67" s="8" t="str">
-        <f t="shared" ref="R67:R103" si="3">IF(Q67&gt;0,"Si","No")</f>
-        <v>No</v>
+        <f>IF(Q67&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
@@ -4632,17 +4638,17 @@
         <v>26</v>
       </c>
       <c r="C68" s="6">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D68" s="7">
-        <v>0.96527777777777779</v>
+        <v>0.94097222222222221</v>
       </c>
       <c r="E68" s="7">
-        <v>0.9902777777777777</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="F68" s="7">
         <f>+E68-D68</f>
-        <v>2.4999999999999911E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>18</v>
@@ -4660,28 +4666,28 @@
         <v>9</v>
       </c>
       <c r="L68" s="8">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M68" s="8">
         <f>+L68+K68</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N68" s="8" t="str">
         <f>IF(K68=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O68" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P68" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Si</v>
+        <f>IF(O68&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q68" s="8">
         <v>0</v>
       </c>
       <c r="R68" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q68&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4693,20 +4699,20 @@
         <v>26</v>
       </c>
       <c r="C69" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D69" s="7">
-        <v>0.99305555555555547</v>
+        <v>0.96527777777777779</v>
       </c>
       <c r="E69" s="7">
-        <v>0.99375000000000002</v>
+        <v>0.9902777777777777</v>
       </c>
       <c r="F69" s="7">
         <f>+E69-D69</f>
-        <v>6.94444444444553E-4</v>
+        <v>2.4999999999999911E-2</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>19</v>
@@ -4718,53 +4724,53 @@
         <v>20</v>
       </c>
       <c r="K69" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L69" s="8">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M69" s="8">
         <f>+L69+K69</f>
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="N69" s="8" t="str">
         <f>IF(K69=0,"Lectura","Interacción")</f>
-        <v>Lectura</v>
+        <v>Interacción</v>
       </c>
       <c r="O69" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P69" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
+        <f>IF(O69&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q69" s="8">
         <v>0</v>
       </c>
       <c r="R69" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q69&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
-        <v>44504</v>
+        <v>44503</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C70" s="6">
         <v>15</v>
       </c>
       <c r="D70" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.99305555555555547</v>
       </c>
       <c r="E70" s="7">
-        <v>0.40416666666666662</v>
+        <v>0.99375000000000002</v>
       </c>
       <c r="F70" s="7">
         <f>+E70-D70</f>
-        <v>7.0833333333333304E-2</v>
+        <v>6.94444444444553E-4</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>22</v>
@@ -4779,31 +4785,31 @@
         <v>20</v>
       </c>
       <c r="K70" s="8">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L70" s="8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M70" s="8">
         <f>+L70+K70</f>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="N70" s="8" t="str">
         <f>IF(K70=0,"Lectura","Interacción")</f>
-        <v>Interacción</v>
+        <v>Lectura</v>
       </c>
       <c r="O70" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P70" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Si</v>
+        <f>IF(O70&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q70" s="8">
         <v>0</v>
       </c>
       <c r="R70" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q70&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4815,20 +4821,20 @@
         <v>27</v>
       </c>
       <c r="C71" s="6">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D71" s="7">
-        <v>0.35347222222222219</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E71" s="7">
-        <v>0.3611111111111111</v>
+        <v>0.40416666666666662</v>
       </c>
       <c r="F71" s="7">
         <f>+E71-D71</f>
-        <v>7.6388888888889173E-3</v>
+        <v>7.0833333333333304E-2</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>19</v>
@@ -4840,31 +4846,31 @@
         <v>20</v>
       </c>
       <c r="K71" s="8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L71" s="8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M71" s="8">
         <f>+L71+K71</f>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="N71" s="8" t="str">
         <f>IF(K71=0,"Lectura","Interacción")</f>
-        <v>Lectura</v>
+        <v>Interacción</v>
       </c>
       <c r="O71" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P71" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
+        <f>IF(O71&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q71" s="8">
         <v>0</v>
       </c>
       <c r="R71" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q71&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4876,17 +4882,17 @@
         <v>27</v>
       </c>
       <c r="C72" s="6">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D72" s="7">
-        <v>0.375</v>
+        <v>0.35347222222222219</v>
       </c>
       <c r="E72" s="7">
-        <v>0.38819444444444445</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="F72" s="7">
         <f>+E72-D72</f>
-        <v>1.3194444444444453E-2</v>
+        <v>7.6388888888889173E-3</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>18</v>
@@ -4901,31 +4907,31 @@
         <v>20</v>
       </c>
       <c r="K72" s="8">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L72" s="8">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="M72" s="8">
         <f>+L72+K72</f>
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="N72" s="8" t="str">
         <f>IF(K72=0,"Lectura","Interacción")</f>
-        <v>Interacción</v>
+        <v>Lectura</v>
       </c>
       <c r="O72" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Si</v>
+        <f>IF(O72&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q72" s="8">
         <v>0</v>
       </c>
       <c r="R72" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q72&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4937,39 +4943,39 @@
         <v>27</v>
       </c>
       <c r="C73" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" s="7">
-        <v>0.40625</v>
+        <v>0.375</v>
       </c>
       <c r="E73" s="7">
-        <v>0.41805555555555557</v>
+        <v>0.38819444444444445</v>
       </c>
       <c r="F73" s="7">
         <f>+E73-D73</f>
-        <v>1.1805555555555569E-2</v>
+        <v>1.3194444444444453E-2</v>
       </c>
       <c r="G73" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73" s="8">
+        <v>13</v>
+      </c>
+      <c r="L73" s="8">
         <v>22</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K73" s="8">
-        <v>9</v>
-      </c>
-      <c r="L73" s="8">
-        <v>10</v>
       </c>
       <c r="M73" s="8">
         <f>+L73+K73</f>
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N73" s="8" t="str">
         <f>IF(K73=0,"Lectura","Interacción")</f>
@@ -4979,14 +4985,14 @@
         <v>1</v>
       </c>
       <c r="P73" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(O73&gt;0,"Si","No")</f>
         <v>Si</v>
       </c>
       <c r="Q73" s="8">
         <v>0</v>
       </c>
       <c r="R73" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q73&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4998,17 +5004,17 @@
         <v>27</v>
       </c>
       <c r="C74" s="6">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D74" s="7">
-        <v>0.4291666666666667</v>
+        <v>0.40625</v>
       </c>
       <c r="E74" s="7">
-        <v>0.55833333333333335</v>
+        <v>0.41805555555555557</v>
       </c>
       <c r="F74" s="7">
         <f>+E74-D74</f>
-        <v>0.12916666666666665</v>
+        <v>1.1805555555555569E-2</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>22</v>
@@ -5020,34 +5026,34 @@
         <v>20</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K74" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="L74" s="8">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="M74" s="8">
         <f>+L74+K74</f>
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="N74" s="8" t="str">
         <f>IF(K74=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O74" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
+        <f>IF(O74&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q74" s="8">
         <v>0</v>
       </c>
       <c r="R74" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q74&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -5059,17 +5065,17 @@
         <v>27</v>
       </c>
       <c r="C75" s="6">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D75" s="7">
-        <v>0.43333333333333335</v>
+        <v>0.4291666666666667</v>
       </c>
       <c r="E75" s="7">
-        <v>0.44027777777777777</v>
+        <v>0.55833333333333335</v>
       </c>
       <c r="F75" s="7">
         <f>+E75-D75</f>
-        <v>6.9444444444444198E-3</v>
+        <v>0.12916666666666665</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>22</v>
@@ -5081,34 +5087,34 @@
         <v>20</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K75" s="8">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="L75" s="8">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="M75" s="8">
         <f>+L75+K75</f>
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="N75" s="8" t="str">
         <f>IF(K75=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O75" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P75" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Si</v>
+        <f>IF(O75&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q75" s="8">
         <v>0</v>
       </c>
       <c r="R75" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q75&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -5120,57 +5126,57 @@
         <v>27</v>
       </c>
       <c r="C76" s="6">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D76" s="7">
-        <v>0.43611111111111112</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="E76" s="7">
-        <v>0.45694444444444443</v>
+        <v>0.44027777777777777</v>
       </c>
       <c r="F76" s="7">
         <f>+E76-D76</f>
-        <v>2.0833333333333315E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K76" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L76" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M76" s="8">
         <f>+L76+K76</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N76" s="8" t="str">
         <f>IF(K76=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O76" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P76" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(O76&gt;0,"Si","No")</f>
         <v>Si</v>
       </c>
       <c r="Q76" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Si</v>
+        <f>IF(Q76&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
@@ -5181,57 +5187,57 @@
         <v>27</v>
       </c>
       <c r="C77" s="6">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D77" s="7">
-        <v>0.44791666666666669</v>
+        <v>0.43611111111111112</v>
       </c>
       <c r="E77" s="7">
-        <v>0.46111111111111108</v>
+        <v>0.45694444444444443</v>
       </c>
       <c r="F77" s="7">
         <f>+E77-D77</f>
-        <v>1.3194444444444398E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K77" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L77" s="8">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M77" s="8">
         <f>+L77+K77</f>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N77" s="8" t="str">
         <f>IF(K77=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O77" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
+        <f>IF(O77&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q77" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
+        <f>IF(Q77&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
@@ -5242,20 +5248,20 @@
         <v>27</v>
       </c>
       <c r="C78" s="6">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D78" s="7">
-        <v>0.4548611111111111</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E78" s="7">
-        <v>0.46527777777777773</v>
+        <v>0.46111111111111108</v>
       </c>
       <c r="F78" s="7">
         <f>+E78-D78</f>
-        <v>1.041666666666663E-2</v>
+        <v>1.3194444444444398E-2</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>23</v>
@@ -5267,31 +5273,31 @@
         <v>20</v>
       </c>
       <c r="K78" s="8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L78" s="8">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M78" s="8">
         <f>+L78+K78</f>
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N78" s="8" t="str">
         <f>IF(K78=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O78" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P78" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Si</v>
+        <f>IF(O78&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q78" s="8">
         <v>0</v>
       </c>
       <c r="R78" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q78&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -5303,56 +5309,56 @@
         <v>27</v>
       </c>
       <c r="C79" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" s="7">
-        <v>0.47986111111111113</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="E79" s="7">
-        <v>0.48680555555555555</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="F79" s="7">
         <f>+E79-D79</f>
-        <v>6.9444444444444198E-3</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J79" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K79" s="8">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="L79" s="8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M79" s="8">
         <f>+L79+K79</f>
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="N79" s="8" t="str">
         <f>IF(K79=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O79" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
+        <f>IF(O79&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q79" s="8">
         <v>0</v>
       </c>
       <c r="R79" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q79&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -5364,17 +5370,17 @@
         <v>27</v>
       </c>
       <c r="C80" s="6">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D80" s="7">
-        <v>0.50138888888888888</v>
+        <v>0.47986111111111113</v>
       </c>
       <c r="E80" s="7">
-        <v>0.50763888888888886</v>
+        <v>0.48680555555555555</v>
       </c>
       <c r="F80" s="7">
         <f>+E80-D80</f>
-        <v>6.2499999999999778E-3</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>18</v>
@@ -5383,37 +5389,37 @@
         <v>19</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K80" s="8">
+        <v>3</v>
+      </c>
+      <c r="L80" s="8">
         <v>10</v>
-      </c>
-      <c r="L80" s="8">
-        <v>18</v>
       </c>
       <c r="M80" s="8">
         <f>+L80+K80</f>
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N80" s="8" t="str">
         <f>IF(K80=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O80" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P80" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Si</v>
+        <f>IF(O80&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q80" s="8">
         <v>0</v>
       </c>
       <c r="R80" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q80&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -5425,17 +5431,17 @@
         <v>27</v>
       </c>
       <c r="C81" s="6">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D81" s="7">
-        <v>0.51944444444444449</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="E81" s="7">
-        <v>0.58402777777777781</v>
+        <v>0.50763888888888886</v>
       </c>
       <c r="F81" s="7">
         <f>+E81-D81</f>
-        <v>6.4583333333333326E-2</v>
+        <v>6.2499999999999778E-3</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>18</v>
@@ -5444,38 +5450,38 @@
         <v>19</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K81" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L81" s="8">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M81" s="8">
         <f>+L81+K81</f>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N81" s="8" t="str">
         <f>IF(K81=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O81" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P81" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(O81&gt;0,"Si","No")</f>
         <v>Si</v>
       </c>
       <c r="Q81" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R81" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Si</v>
+        <f>IF(Q81&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
@@ -5486,23 +5492,23 @@
         <v>27</v>
       </c>
       <c r="C82" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D82" s="7">
-        <v>0.63055555555555554</v>
+        <v>0.51597222222222217</v>
       </c>
       <c r="E82" s="7">
-        <v>0.68125000000000002</v>
+        <v>0.52013888888888882</v>
       </c>
       <c r="F82" s="7">
         <f>+E82-D82</f>
-        <v>5.0694444444444486E-2</v>
+        <v>4.1666666666666519E-3</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>21</v>
@@ -5511,31 +5517,31 @@
         <v>20</v>
       </c>
       <c r="K82" s="8">
+        <v>1</v>
+      </c>
+      <c r="L82" s="8">
         <v>8</v>
-      </c>
-      <c r="L82" s="8">
-        <v>21</v>
       </c>
       <c r="M82" s="8">
         <f>+L82+K82</f>
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="N82" s="8" t="str">
         <f>IF(K82=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O82" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P82" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Si</v>
+        <f>IF(O82&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q82" s="8">
         <v>0</v>
       </c>
       <c r="R82" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q82&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -5547,57 +5553,57 @@
         <v>27</v>
       </c>
       <c r="C83" s="6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D83" s="7">
-        <v>0.63402777777777775</v>
+        <v>0.51944444444444449</v>
       </c>
       <c r="E83" s="7">
-        <v>0.63680555555555551</v>
+        <v>0.58402777777777781</v>
       </c>
       <c r="F83" s="7">
         <f>+E83-D83</f>
-        <v>2.7777777777777679E-3</v>
+        <v>6.4583333333333326E-2</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K83" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L83" s="8">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="M83" s="8">
         <f>+L83+K83</f>
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="N83" s="8" t="str">
         <f>IF(K83=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O83" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P83" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
+        <f>IF(O83&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q83" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R83" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
+        <f>IF(Q83&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
@@ -5608,56 +5614,56 @@
         <v>27</v>
       </c>
       <c r="C84" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D84" s="7">
-        <v>0.65069444444444446</v>
+        <v>0.63055555555555554</v>
       </c>
       <c r="E84" s="7">
-        <v>0.6645833333333333</v>
+        <v>0.68125000000000002</v>
       </c>
       <c r="F84" s="7">
         <f>+E84-D84</f>
-        <v>1.388888888888884E-2</v>
+        <v>5.0694444444444486E-2</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J84" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K84" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L84" s="8">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="M84" s="8">
         <f>+L84+K84</f>
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N84" s="8" t="str">
         <f>IF(K84=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O84" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P84" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
+        <f>IF(O84&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q84" s="8">
         <v>0</v>
       </c>
       <c r="R84" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q84&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -5669,56 +5675,56 @@
         <v>27</v>
       </c>
       <c r="C85" s="6">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D85" s="7">
-        <v>0.66249999999999998</v>
+        <v>0.63402777777777775</v>
       </c>
       <c r="E85" s="7">
-        <v>0.66597222222222219</v>
+        <v>0.63680555555555551</v>
       </c>
       <c r="F85" s="7">
         <f>+E85-D85</f>
-        <v>3.4722222222222099E-3</v>
+        <v>2.7777777777777679E-3</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I85" s="8" t="s">
         <v>20</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K85" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L85" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M85" s="8">
         <f>+L85+K85</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N85" s="8" t="str">
         <f>IF(K85=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O85" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P85" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Si</v>
+        <f>IF(O85&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q85" s="8">
         <v>0</v>
       </c>
       <c r="R85" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q85&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -5730,23 +5736,23 @@
         <v>27</v>
       </c>
       <c r="C86" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D86" s="7">
-        <v>0.68472222222222223</v>
+        <v>0.65069444444444446</v>
       </c>
       <c r="E86" s="7">
-        <v>0.68541666666666667</v>
+        <v>0.6645833333333333</v>
       </c>
       <c r="F86" s="7">
         <f>+E86-D86</f>
-        <v>6.9444444444444198E-4</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I86" s="8" t="s">
         <v>20</v>
@@ -5755,31 +5761,31 @@
         <v>20</v>
       </c>
       <c r="K86" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L86" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M86" s="8">
         <f>+L86+K86</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N86" s="8" t="str">
         <f>IF(K86=0,"Lectura","Interacción")</f>
-        <v>Lectura</v>
+        <v>Interacción</v>
       </c>
       <c r="O86" s="8">
         <v>0</v>
       </c>
       <c r="P86" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(O86&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q86" s="8">
         <v>0</v>
       </c>
       <c r="R86" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q86&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -5791,17 +5797,17 @@
         <v>27</v>
       </c>
       <c r="C87" s="6">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D87" s="7">
-        <v>0.75277777777777777</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="E87" s="7">
-        <v>0.75277777777777777</v>
+        <v>0.66597222222222219</v>
       </c>
       <c r="F87" s="7">
         <f>+E87-D87</f>
-        <v>0</v>
+        <v>3.4722222222222099E-3</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>18</v>
@@ -5810,37 +5816,37 @@
         <v>19</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J87" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K87" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L87" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M87" s="8">
         <f>+L87+K87</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N87" s="8" t="str">
         <f>IF(K87=0,"Lectura","Interacción")</f>
-        <v>Lectura</v>
+        <v>Interacción</v>
       </c>
       <c r="O87" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P87" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
+        <f>IF(O87&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q87" s="8">
         <v>0</v>
       </c>
       <c r="R87" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q87&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -5852,17 +5858,17 @@
         <v>27</v>
       </c>
       <c r="C88" s="6">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D88" s="7">
-        <v>0.75763888888888886</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="E88" s="7">
-        <v>0.75902777777777775</v>
+        <v>0.68541666666666667</v>
       </c>
       <c r="F88" s="7">
         <f>+E88-D88</f>
-        <v>1.388888888888884E-3</v>
+        <v>6.9444444444444198E-4</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>18</v>
@@ -5871,37 +5877,37 @@
         <v>19</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J88" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K88" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L88" s="8">
         <v>1</v>
       </c>
       <c r="M88" s="8">
         <f>+L88+K88</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N88" s="8" t="str">
         <f>IF(K88=0,"Lectura","Interacción")</f>
-        <v>Interacción</v>
+        <v>Lectura</v>
       </c>
       <c r="O88" s="8">
         <v>0</v>
       </c>
       <c r="P88" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(O88&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q88" s="8">
         <v>0</v>
       </c>
       <c r="R88" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q88&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -5913,17 +5919,17 @@
         <v>27</v>
       </c>
       <c r="C89" s="6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D89" s="7">
-        <v>0.75902777777777775</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="E89" s="7">
-        <v>0.76388888888888884</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="F89" s="7">
         <f>+E89-D89</f>
-        <v>4.8611111111110938E-3</v>
+        <v>0</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>18</v>
@@ -5932,38 +5938,38 @@
         <v>19</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J89" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K89" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L89" s="8">
         <v>3</v>
       </c>
       <c r="M89" s="8">
         <f>+L89+K89</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N89" s="8" t="str">
         <f>IF(K89=0,"Lectura","Interacción")</f>
-        <v>Interacción</v>
+        <v>Lectura</v>
       </c>
       <c r="O89" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P89" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Si</v>
+        <f>IF(O89&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q89" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R89" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Si</v>
+        <f>IF(Q89&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
@@ -5974,17 +5980,17 @@
         <v>27</v>
       </c>
       <c r="C90" s="6">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D90" s="7">
-        <v>0.83819444444444446</v>
+        <v>0.75763888888888886</v>
       </c>
       <c r="E90" s="7">
-        <v>0.83888888888888891</v>
+        <v>0.75902777777777775</v>
       </c>
       <c r="F90" s="7">
         <f>+E90-D90</f>
-        <v>6.9444444444444198E-4</v>
+        <v>1.388888888888884E-3</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>18</v>
@@ -5993,37 +5999,37 @@
         <v>19</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J90" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K90" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L90" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M90" s="8">
         <f>+L90+K90</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N90" s="8" t="str">
         <f>IF(K90=0,"Lectura","Interacción")</f>
-        <v>Lectura</v>
+        <v>Interacción</v>
       </c>
       <c r="O90" s="8">
         <v>0</v>
       </c>
       <c r="P90" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(O90&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q90" s="8">
         <v>0</v>
       </c>
       <c r="R90" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q90&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -6035,17 +6041,17 @@
         <v>27</v>
       </c>
       <c r="C91" s="6">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D91" s="7">
-        <v>0.8618055555555556</v>
+        <v>0.75902777777777775</v>
       </c>
       <c r="E91" s="7">
-        <v>0.86944444444444446</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="F91" s="7">
         <f>+E91-D91</f>
-        <v>7.6388888888888618E-3</v>
+        <v>4.8611111111110938E-3</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>18</v>
@@ -6054,38 +6060,38 @@
         <v>19</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J91" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K91" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L91" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M91" s="8">
         <f>+L91+K91</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N91" s="8" t="str">
         <f>IF(K91=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O91" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
+        <f>IF(O91&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q91" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R91" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
+        <f>IF(Q91&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
@@ -6096,17 +6102,17 @@
         <v>27</v>
       </c>
       <c r="C92" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D92" s="7">
-        <v>0.86736111111111114</v>
+        <v>0.83819444444444446</v>
       </c>
       <c r="E92" s="7">
-        <v>0.875</v>
+        <v>0.83888888888888891</v>
       </c>
       <c r="F92" s="7">
         <f>+E92-D92</f>
-        <v>7.6388888888888618E-3</v>
+        <v>6.9444444444444198E-4</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>18</v>
@@ -6115,38 +6121,38 @@
         <v>19</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J92" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K92" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L92" s="8">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M92" s="8">
         <f>+L92+K92</f>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="N92" s="8" t="str">
         <f>IF(K92=0,"Lectura","Interacción")</f>
-        <v>Interacción</v>
+        <v>Lectura</v>
       </c>
       <c r="O92" s="8">
         <v>0</v>
       </c>
       <c r="P92" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(O92&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q92" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Si</v>
+        <f>IF(Q92&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
@@ -6157,17 +6163,17 @@
         <v>27</v>
       </c>
       <c r="C93" s="6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D93" s="7">
-        <v>0.93958333333333333</v>
+        <v>0.8618055555555556</v>
       </c>
       <c r="E93" s="7">
-        <v>0.97222222222222221</v>
+        <v>0.86944444444444446</v>
       </c>
       <c r="F93" s="7">
         <f>+E93-D93</f>
-        <v>3.2638888888888884E-2</v>
+        <v>7.6388888888888618E-3</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>18</v>
@@ -6176,37 +6182,37 @@
         <v>19</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J93" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K93" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L93" s="8">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="M93" s="8">
         <f>+L93+K93</f>
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="N93" s="8" t="str">
         <f>IF(K93=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O93" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P93" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Si</v>
+        <f>IF(O93&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q93" s="8">
         <v>0</v>
       </c>
       <c r="R93" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q93&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -6218,17 +6224,17 @@
         <v>27</v>
       </c>
       <c r="C94" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D94" s="7">
-        <v>0.94513888888888886</v>
+        <v>0.86736111111111114</v>
       </c>
       <c r="E94" s="7">
-        <v>0.9458333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="F94" s="7">
         <f>+E94-D94</f>
-        <v>6.9444444444444198E-4</v>
+        <v>7.6388888888888618E-3</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>18</v>
@@ -6237,59 +6243,59 @@
         <v>19</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J94" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K94" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L94" s="8">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="M94" s="8">
         <f>+L94+K94</f>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="N94" s="8" t="str">
         <f>IF(K94=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O94" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P94" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(O94&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q94" s="8">
+        <v>1</v>
+      </c>
+      <c r="R94" s="8" t="str">
+        <f>IF(Q94&gt;0,"Si","No")</f>
         <v>Si</v>
-      </c>
-      <c r="Q94" s="8">
-        <v>0</v>
-      </c>
-      <c r="R94" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C95" s="6">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D95" s="7">
-        <v>0.38055555555555554</v>
+        <v>0.93958333333333333</v>
       </c>
       <c r="E95" s="7">
-        <v>0.40208333333333335</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="F95" s="7">
         <f>+E95-D95</f>
-        <v>2.1527777777777812E-2</v>
+        <v>3.2638888888888884E-2</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>18</v>
@@ -6304,53 +6310,53 @@
         <v>20</v>
       </c>
       <c r="K95" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L95" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M95" s="8">
         <f>+L95+K95</f>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N95" s="8" t="str">
         <f>IF(K95=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O95" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P95" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
+        <f>IF(O95&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q95" s="8">
         <v>0</v>
       </c>
       <c r="R95" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q95&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C96" s="6">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D96" s="7">
-        <v>0.38125000000000003</v>
+        <v>0.94513888888888886</v>
       </c>
       <c r="E96" s="7">
-        <v>0.38194444444444442</v>
+        <v>0.9458333333333333</v>
       </c>
       <c r="F96" s="7">
         <f>+E96-D96</f>
-        <v>6.9444444444438647E-4</v>
+        <v>6.9444444444444198E-4</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>18</v>
@@ -6365,31 +6371,31 @@
         <v>20</v>
       </c>
       <c r="K96" s="8">
+        <v>3</v>
+      </c>
+      <c r="L96" s="8">
         <v>2</v>
-      </c>
-      <c r="L96" s="8">
-        <v>1</v>
       </c>
       <c r="M96" s="8">
         <f>+L96+K96</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N96" s="8" t="str">
         <f>IF(K96=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O96" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P96" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
+        <f>IF(O96&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q96" s="8">
         <v>0</v>
       </c>
       <c r="R96" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q96&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -6401,17 +6407,17 @@
         <v>28</v>
       </c>
       <c r="C97" s="6">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D97" s="7">
-        <v>0.38263888888888892</v>
+        <v>0.38055555555555554</v>
       </c>
       <c r="E97" s="7">
-        <v>0.39930555555555558</v>
+        <v>0.40208333333333335</v>
       </c>
       <c r="F97" s="7">
         <f>+E97-D97</f>
-        <v>1.6666666666666663E-2</v>
+        <v>2.1527777777777812E-2</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>18</v>
@@ -6426,14 +6432,14 @@
         <v>20</v>
       </c>
       <c r="K97" s="8">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L97" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M97" s="8">
         <f>+L97+K97</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N97" s="8" t="str">
         <f>IF(K97=0,"Lectura","Interacción")</f>
@@ -6443,14 +6449,14 @@
         <v>0</v>
       </c>
       <c r="P97" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(O97&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q97" s="8">
         <v>0</v>
       </c>
       <c r="R97" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q97&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -6462,17 +6468,17 @@
         <v>28</v>
       </c>
       <c r="C98" s="6">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D98" s="7">
-        <v>0.39444444444444443</v>
+        <v>0.38125000000000003</v>
       </c>
       <c r="E98" s="7">
-        <v>0.43055555555555558</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="F98" s="7">
         <f>+E98-D98</f>
-        <v>3.6111111111111149E-2</v>
+        <v>6.9444444444438647E-4</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>18</v>
@@ -6481,37 +6487,37 @@
         <v>19</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J98" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K98" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L98" s="8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M98" s="8">
         <f>+L98+K98</f>
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="N98" s="8" t="str">
         <f>IF(K98=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O98" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P98" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Si</v>
+        <f>IF(O98&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q98" s="8">
         <v>0</v>
       </c>
       <c r="R98" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q98&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -6523,17 +6529,17 @@
         <v>28</v>
       </c>
       <c r="C99" s="6">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D99" s="7">
-        <v>0.41111111111111115</v>
+        <v>0.38263888888888892</v>
       </c>
       <c r="E99" s="7">
-        <v>0.4201388888888889</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="F99" s="7">
         <f>+E99-D99</f>
-        <v>9.0277777777777457E-3</v>
+        <v>1.6666666666666663E-2</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>18</v>
@@ -6548,10 +6554,10 @@
         <v>20</v>
       </c>
       <c r="K99" s="8">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="L99" s="8">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M99" s="8">
         <f>+L99+K99</f>
@@ -6565,14 +6571,14 @@
         <v>0</v>
       </c>
       <c r="P99" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(O99&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q99" s="8">
         <v>0</v>
       </c>
       <c r="R99" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q99&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -6584,20 +6590,20 @@
         <v>28</v>
       </c>
       <c r="C100" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D100" s="7">
-        <v>0.48541666666666666</v>
+        <v>0.39444444444444443</v>
       </c>
       <c r="E100" s="7">
-        <v>0.54166666666666663</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="F100" s="7">
         <f>+E100-D100</f>
-        <v>5.6249999999999967E-2</v>
+        <v>3.6111111111111149E-2</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H100" s="8" t="s">
         <v>19</v>
@@ -6609,31 +6615,31 @@
         <v>20</v>
       </c>
       <c r="K100" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L100" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M100" s="8">
         <f>+L100+K100</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N100" s="8" t="str">
         <f>IF(K100=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O100" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P100" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>No</v>
+        <f>IF(O100&gt;0,"Si","No")</f>
+        <v>Si</v>
       </c>
       <c r="Q100" s="8">
         <v>0</v>
       </c>
       <c r="R100" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q100&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -6645,17 +6651,17 @@
         <v>28</v>
       </c>
       <c r="C101" s="6">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D101" s="7">
-        <v>0.5131944444444444</v>
+        <v>0.41111111111111115</v>
       </c>
       <c r="E101" s="7">
-        <v>0.53263888888888888</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="F101" s="7">
         <f>+E101-D101</f>
-        <v>1.9444444444444486E-2</v>
+        <v>9.0277777777777457E-3</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>18</v>
@@ -6664,37 +6670,37 @@
         <v>19</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J101" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K101" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L101" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="M101" s="8">
         <f>+L101+K101</f>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N101" s="8" t="str">
         <f>IF(K101=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O101" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P101" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Si</v>
+        <f>IF(O101&gt;0,"Si","No")</f>
+        <v>No</v>
       </c>
       <c r="Q101" s="8">
         <v>0</v>
       </c>
       <c r="R101" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q101&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -6706,39 +6712,39 @@
         <v>28</v>
       </c>
       <c r="C102" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D102" s="7">
-        <v>0.5180555555555556</v>
+        <v>0.48541666666666666</v>
       </c>
       <c r="E102" s="7">
-        <v>0.52986111111111112</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F102" s="7">
         <f>+E102-D102</f>
-        <v>1.1805555555555514E-2</v>
+        <v>5.6249999999999967E-2</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H102" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J102" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K102" s="8">
+        <v>5</v>
+      </c>
+      <c r="L102" s="8">
         <v>9</v>
-      </c>
-      <c r="L102" s="8">
-        <v>8</v>
       </c>
       <c r="M102" s="8">
         <f>+L102+K102</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N102" s="8" t="str">
         <f>IF(K102=0,"Lectura","Interacción")</f>
@@ -6748,14 +6754,14 @@
         <v>0</v>
       </c>
       <c r="P102" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(O102&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
       <c r="Q102" s="8">
         <v>0</v>
       </c>
       <c r="R102" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q102&gt;0,"Si","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -6767,17 +6773,17 @@
         <v>28</v>
       </c>
       <c r="C103" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D103" s="7">
-        <v>0.5180555555555556</v>
+        <v>0.5131944444444444</v>
       </c>
       <c r="E103" s="7">
-        <v>0.55208333333333337</v>
+        <v>0.53263888888888888</v>
       </c>
       <c r="F103" s="7">
         <f>+E103-D103</f>
-        <v>3.4027777777777768E-2</v>
+        <v>1.9444444444444486E-2</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>18</v>
@@ -6792,53 +6798,1680 @@
         <v>20</v>
       </c>
       <c r="K103" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L103" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M103" s="8">
         <f>+L103+K103</f>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N103" s="8" t="str">
         <f>IF(K103=0,"Lectura","Interacción")</f>
         <v>Interacción</v>
       </c>
       <c r="O103" s="8">
+        <v>5</v>
+      </c>
+      <c r="P103" s="8" t="str">
+        <f>IF(O103&gt;0,"Si","No")</f>
+        <v>Si</v>
+      </c>
+      <c r="Q103" s="8">
+        <v>0</v>
+      </c>
+      <c r="R103" s="8" t="str">
+        <f>IF(Q103&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
+        <v>44505</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="6">
+        <v>17</v>
+      </c>
+      <c r="D104" s="7">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="E104" s="7">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="F104" s="7">
+        <f>+E104-D104</f>
+        <v>1.1805555555555514E-2</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J104" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K104" s="8">
+        <v>9</v>
+      </c>
+      <c r="L104" s="8">
+        <v>8</v>
+      </c>
+      <c r="M104" s="8">
+        <f>+L104+K104</f>
+        <v>17</v>
+      </c>
+      <c r="N104" s="8" t="str">
+        <f>IF(K104=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O104" s="8">
+        <v>0</v>
+      </c>
+      <c r="P104" s="8" t="str">
+        <f>IF(O104&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q104" s="8">
+        <v>0</v>
+      </c>
+      <c r="R104" s="8" t="str">
+        <f>IF(Q104&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
+        <v>44505</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" s="6">
+        <v>5</v>
+      </c>
+      <c r="D105" s="7">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="E105" s="7">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F105" s="7">
+        <f>+E105-D105</f>
+        <v>3.4027777777777768E-2</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K105" s="8">
+        <v>7</v>
+      </c>
+      <c r="L105" s="8">
+        <v>12</v>
+      </c>
+      <c r="M105" s="8">
+        <f>+L105+K105</f>
+        <v>19</v>
+      </c>
+      <c r="N105" s="8" t="str">
+        <f>IF(K105=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O105" s="8">
         <v>1</v>
       </c>
-      <c r="P103" s="8" t="str">
-        <f t="shared" si="2"/>
+      <c r="P105" s="8" t="str">
+        <f>IF(O105&gt;0,"Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q103" s="8">
+      <c r="Q105" s="8">
         <v>2</v>
       </c>
-      <c r="R103" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="R105" s="8" t="str">
+        <f>IF(Q105&gt;0,"Si","No")</f>
         <v>Si</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
-      <c r="Q104" s="8"/>
-      <c r="R104" s="8"/>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <v>44505</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="6">
+        <v>11</v>
+      </c>
+      <c r="D106" s="7">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="E106" s="7">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="F106" s="7">
+        <f>+E106-D106</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K106" s="8">
+        <v>3</v>
+      </c>
+      <c r="L106" s="8">
+        <v>3</v>
+      </c>
+      <c r="M106" s="8">
+        <f>+L106+K106</f>
+        <v>6</v>
+      </c>
+      <c r="N106" s="8" t="str">
+        <f>IF(K106=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O106" s="8">
+        <v>0</v>
+      </c>
+      <c r="P106" s="8" t="str">
+        <f>IF(O106&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q106" s="8">
+        <v>0</v>
+      </c>
+      <c r="R106" s="8" t="str">
+        <f>IF(Q106&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A107" s="5">
+        <v>44505</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="6">
+        <v>1</v>
+      </c>
+      <c r="D107" s="7">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="E107" s="7">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="F107" s="7">
+        <f>+E107-D107</f>
+        <v>4.8611111111110938E-3</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K107" s="8">
+        <v>8</v>
+      </c>
+      <c r="L107" s="8">
+        <v>21</v>
+      </c>
+      <c r="M107" s="8">
+        <f>+L107+K107</f>
+        <v>29</v>
+      </c>
+      <c r="N107" s="8" t="str">
+        <f>IF(K107=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O107" s="8">
+        <v>2</v>
+      </c>
+      <c r="P107" s="8" t="str">
+        <f>IF(O107&gt;0,"Si","No")</f>
+        <v>Si</v>
+      </c>
+      <c r="Q107" s="8">
+        <v>0</v>
+      </c>
+      <c r="R107" s="8" t="str">
+        <f>IF(Q107&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A108" s="5">
+        <v>44505</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="6">
+        <v>22</v>
+      </c>
+      <c r="D108" s="7">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="E108" s="7">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="F108" s="7">
+        <f>+E108-D108</f>
+        <v>1.1805555555555625E-2</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J108" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K108" s="8">
+        <v>9</v>
+      </c>
+      <c r="L108" s="8">
+        <v>8</v>
+      </c>
+      <c r="M108" s="8">
+        <f>+L108+K108</f>
+        <v>17</v>
+      </c>
+      <c r="N108" s="8" t="str">
+        <f>IF(K108=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O108" s="8">
+        <v>1</v>
+      </c>
+      <c r="P108" s="8" t="str">
+        <f>IF(O108&gt;0,"Si","No")</f>
+        <v>Si</v>
+      </c>
+      <c r="Q108" s="8">
+        <v>0</v>
+      </c>
+      <c r="R108" s="8" t="str">
+        <f>IF(Q108&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A109" s="5">
+        <v>44505</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="6">
+        <v>22</v>
+      </c>
+      <c r="D109" s="7">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="E109" s="7">
+        <v>0.65902777777777777</v>
+      </c>
+      <c r="F109" s="7">
+        <f>+E109-D109</f>
+        <v>9.7222222222221877E-3</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K109" s="8">
+        <v>12</v>
+      </c>
+      <c r="L109" s="8">
+        <v>12</v>
+      </c>
+      <c r="M109" s="8">
+        <f>+L109+K109</f>
+        <v>24</v>
+      </c>
+      <c r="N109" s="8" t="str">
+        <f>IF(K109=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O109" s="8">
+        <v>3</v>
+      </c>
+      <c r="P109" s="8" t="str">
+        <f>IF(O109&gt;0,"Si","No")</f>
+        <v>Si</v>
+      </c>
+      <c r="Q109" s="8">
+        <v>0</v>
+      </c>
+      <c r="R109" s="8" t="str">
+        <f>IF(Q109&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A110" s="5">
+        <v>44505</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="6">
+        <v>1</v>
+      </c>
+      <c r="D110" s="7">
+        <v>0.66388888888888886</v>
+      </c>
+      <c r="E110" s="7">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="F110" s="7">
+        <f>+E110-D110</f>
+        <v>5.5555555555555358E-3</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J110" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K110" s="8">
+        <v>3</v>
+      </c>
+      <c r="L110" s="8">
+        <v>10</v>
+      </c>
+      <c r="M110" s="8">
+        <f>+L110+K110</f>
+        <v>13</v>
+      </c>
+      <c r="N110" s="8" t="str">
+        <f>IF(K110=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O110" s="8">
+        <v>2</v>
+      </c>
+      <c r="P110" s="8" t="str">
+        <f>IF(O110&gt;0,"Si","No")</f>
+        <v>Si</v>
+      </c>
+      <c r="Q110" s="8">
+        <v>0</v>
+      </c>
+      <c r="R110" s="8" t="str">
+        <f>IF(Q110&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A111" s="5">
+        <v>44505</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="6">
+        <v>5</v>
+      </c>
+      <c r="D111" s="7">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="E111" s="7">
+        <v>0.7597222222222223</v>
+      </c>
+      <c r="F111" s="7">
+        <f>+E111-D111</f>
+        <v>4.3055555555555625E-2</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J111" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K111" s="8">
+        <v>31</v>
+      </c>
+      <c r="L111" s="8">
+        <v>50</v>
+      </c>
+      <c r="M111" s="8">
+        <f>+L111+K111</f>
+        <v>81</v>
+      </c>
+      <c r="N111" s="8" t="str">
+        <f>IF(K111=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O111" s="8">
+        <v>6</v>
+      </c>
+      <c r="P111" s="8" t="str">
+        <f>IF(O111&gt;0,"Si","No")</f>
+        <v>Si</v>
+      </c>
+      <c r="Q111" s="8">
+        <v>3</v>
+      </c>
+      <c r="R111" s="8" t="str">
+        <f>IF(Q111&gt;0,"Si","No")</f>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A112" s="5">
+        <v>44505</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" s="6">
+        <v>21</v>
+      </c>
+      <c r="D112" s="7">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="E112" s="7">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F112" s="7">
+        <f>+E112-D112</f>
+        <v>5.5555555555555358E-3</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J112" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K112" s="8">
+        <v>3</v>
+      </c>
+      <c r="L112" s="8">
+        <v>6</v>
+      </c>
+      <c r="M112" s="8">
+        <f>+L112+K112</f>
+        <v>9</v>
+      </c>
+      <c r="N112" s="8" t="str">
+        <f>IF(K112=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O112" s="8">
+        <v>0</v>
+      </c>
+      <c r="P112" s="8" t="str">
+        <f>IF(O112&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q112" s="8">
+        <v>0</v>
+      </c>
+      <c r="R112" s="8" t="str">
+        <f>IF(Q112&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A113" s="5">
+        <v>44505</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" s="6">
+        <v>1</v>
+      </c>
+      <c r="D113" s="7">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="E113" s="7">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="F113" s="7">
+        <f>+E113-D113</f>
+        <v>2.4999999999999911E-2</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J113" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K113" s="8">
+        <v>1</v>
+      </c>
+      <c r="L113" s="8">
+        <v>10</v>
+      </c>
+      <c r="M113" s="8">
+        <f>+L113+K113</f>
+        <v>11</v>
+      </c>
+      <c r="N113" s="8" t="str">
+        <f>IF(K113=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O113" s="8">
+        <v>1</v>
+      </c>
+      <c r="P113" s="8" t="str">
+        <f>IF(O113&gt;0,"Si","No")</f>
+        <v>Si</v>
+      </c>
+      <c r="Q113" s="8">
+        <v>0</v>
+      </c>
+      <c r="R113" s="8" t="str">
+        <f>IF(Q113&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A114" s="5">
+        <v>44505</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" s="6">
+        <v>11</v>
+      </c>
+      <c r="D114" s="7">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="E114" s="7">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="F114" s="7">
+        <f>+E114-D114</f>
+        <v>2.6388888888888906E-2</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J114" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K114" s="8">
+        <v>8</v>
+      </c>
+      <c r="L114" s="8">
+        <v>9</v>
+      </c>
+      <c r="M114" s="8">
+        <f>+L114+K114</f>
+        <v>17</v>
+      </c>
+      <c r="N114" s="8" t="str">
+        <f>IF(K114=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O114" s="8">
+        <v>1</v>
+      </c>
+      <c r="P114" s="8" t="str">
+        <f>IF(O114&gt;0,"Si","No")</f>
+        <v>Si</v>
+      </c>
+      <c r="Q114" s="8">
+        <v>1</v>
+      </c>
+      <c r="R114" s="8" t="str">
+        <f>IF(Q114&gt;0,"Si","No")</f>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A115" s="5">
+        <v>44505</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="6">
+        <v>6</v>
+      </c>
+      <c r="D115" s="7">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="E115" s="7">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="F115" s="7">
+        <f>+E115-D115</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J115" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K115" s="8">
+        <v>5</v>
+      </c>
+      <c r="L115" s="8">
+        <v>3</v>
+      </c>
+      <c r="M115" s="8">
+        <f>+L115+K115</f>
+        <v>8</v>
+      </c>
+      <c r="N115" s="8" t="str">
+        <f>IF(K115=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O115" s="8">
+        <v>0</v>
+      </c>
+      <c r="P115" s="8" t="str">
+        <f>IF(O115&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q115" s="8">
+        <v>0</v>
+      </c>
+      <c r="R115" s="8" t="str">
+        <f>IF(Q115&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
+        <v>44506</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" s="6">
+        <v>5</v>
+      </c>
+      <c r="D116" s="7">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="E116" s="7">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="F116" s="7">
+        <f>+E116-D116</f>
+        <v>2.1527777777777757E-2</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K116" s="8">
+        <v>3</v>
+      </c>
+      <c r="L116" s="8">
+        <v>10</v>
+      </c>
+      <c r="M116" s="8">
+        <f>+L116+K116</f>
+        <v>13</v>
+      </c>
+      <c r="N116" s="8" t="str">
+        <f>IF(K116=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O116" s="8">
+        <v>0</v>
+      </c>
+      <c r="P116" s="8" t="str">
+        <f>IF(O116&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q116" s="8">
+        <v>0</v>
+      </c>
+      <c r="R116" s="8" t="str">
+        <f>IF(Q116&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A117" s="5">
+        <v>44506</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" s="6">
+        <v>6</v>
+      </c>
+      <c r="D117" s="7">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="E117" s="7">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="F117" s="7">
+        <f>+E117-D117</f>
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J117" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K117" s="8">
+        <v>21</v>
+      </c>
+      <c r="L117" s="8">
+        <v>26</v>
+      </c>
+      <c r="M117" s="8">
+        <f>+L117+K117</f>
+        <v>47</v>
+      </c>
+      <c r="N117" s="8" t="str">
+        <f>IF(K117=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O117" s="8">
+        <v>0</v>
+      </c>
+      <c r="P117" s="8" t="str">
+        <f>IF(O117&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q117" s="8">
+        <v>0</v>
+      </c>
+      <c r="R117" s="8" t="str">
+        <f>IF(Q117&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
+        <v>44506</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="6">
+        <v>21</v>
+      </c>
+      <c r="D118" s="7">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E118" s="7">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="F118" s="7">
+        <f>+E118-D118</f>
+        <v>7.6388888888889173E-3</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J118" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K118" s="8">
+        <v>23</v>
+      </c>
+      <c r="L118" s="8">
+        <v>15</v>
+      </c>
+      <c r="M118" s="8">
+        <f>+L118+K118</f>
+        <v>38</v>
+      </c>
+      <c r="N118" s="8" t="str">
+        <f>IF(K118=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O118" s="8">
+        <v>1</v>
+      </c>
+      <c r="P118" s="8" t="str">
+        <f>IF(O118&gt;0,"Si","No")</f>
+        <v>Si</v>
+      </c>
+      <c r="Q118" s="8">
+        <v>0</v>
+      </c>
+      <c r="R118" s="8" t="str">
+        <f>IF(Q118&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
+        <v>44506</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="6">
+        <v>36</v>
+      </c>
+      <c r="D119" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="E119" s="7">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="F119" s="7">
+        <f>+E119-D119</f>
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K119" s="8">
+        <v>2</v>
+      </c>
+      <c r="L119" s="8">
+        <v>3</v>
+      </c>
+      <c r="M119" s="8">
+        <f>+L119+K119</f>
+        <v>5</v>
+      </c>
+      <c r="N119" s="8" t="str">
+        <f>IF(K119=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O119" s="8">
+        <v>1</v>
+      </c>
+      <c r="P119" s="8" t="str">
+        <f>IF(O119&gt;0,"Si","No")</f>
+        <v>Si</v>
+      </c>
+      <c r="Q119" s="8">
+        <v>0</v>
+      </c>
+      <c r="R119" s="8" t="str">
+        <f>IF(Q119&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A120" s="5">
+        <v>44506</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="6">
+        <v>34</v>
+      </c>
+      <c r="D120" s="7">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="E120" s="7">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="F120" s="7">
+        <f>+E120-D120</f>
+        <v>0</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J120" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K120" s="8">
+        <v>1</v>
+      </c>
+      <c r="L120" s="8">
+        <v>0</v>
+      </c>
+      <c r="M120" s="8">
+        <f>+L120+K120</f>
+        <v>1</v>
+      </c>
+      <c r="N120" s="8" t="str">
+        <f>IF(K120=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O120" s="8">
+        <v>0</v>
+      </c>
+      <c r="P120" s="8" t="str">
+        <f>IF(O120&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q120" s="8">
+        <v>0</v>
+      </c>
+      <c r="R120" s="8" t="str">
+        <f>IF(Q120&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A121" s="5">
+        <v>44506</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" s="6">
+        <v>35</v>
+      </c>
+      <c r="D121" s="7">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E121" s="7">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="F121" s="7">
+        <f>+E121-D121</f>
+        <v>6.9444444444444198E-4</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J121" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K121" s="8">
+        <v>0</v>
+      </c>
+      <c r="L121" s="8">
+        <v>2</v>
+      </c>
+      <c r="M121" s="8">
+        <f>+L121+K121</f>
+        <v>2</v>
+      </c>
+      <c r="N121" s="8" t="str">
+        <f>IF(K121=0,"Lectura","Interacción")</f>
+        <v>Lectura</v>
+      </c>
+      <c r="O121" s="8">
+        <v>0</v>
+      </c>
+      <c r="P121" s="8" t="str">
+        <f>IF(O121&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q121" s="8">
+        <v>0</v>
+      </c>
+      <c r="R121" s="8" t="str">
+        <f>IF(Q121&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A122" s="5">
+        <v>44506</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="6">
+        <v>5</v>
+      </c>
+      <c r="D122" s="7">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="E122" s="7">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F122" s="7">
+        <f>+E122-D122</f>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J122" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K122" s="8">
+        <v>2</v>
+      </c>
+      <c r="L122" s="8">
+        <v>6</v>
+      </c>
+      <c r="M122" s="8">
+        <f>+L122+K122</f>
+        <v>8</v>
+      </c>
+      <c r="N122" s="8" t="str">
+        <f>IF(K122=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O122" s="8">
+        <v>1</v>
+      </c>
+      <c r="P122" s="8" t="str">
+        <f>IF(O122&gt;0,"Si","No")</f>
+        <v>Si</v>
+      </c>
+      <c r="Q122" s="8">
+        <v>0</v>
+      </c>
+      <c r="R122" s="8" t="str">
+        <f>IF(Q122&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A123" s="5">
+        <v>44506</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" s="6">
+        <v>36</v>
+      </c>
+      <c r="D123" s="7">
+        <v>0.75277777777777777</v>
+      </c>
+      <c r="E123" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F123" s="7">
+        <f>+E123-D123</f>
+        <v>3.8888888888888862E-2</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K123" s="8">
+        <v>9</v>
+      </c>
+      <c r="L123" s="8">
+        <v>6</v>
+      </c>
+      <c r="M123" s="8">
+        <f>+L123+K123</f>
+        <v>15</v>
+      </c>
+      <c r="N123" s="8" t="str">
+        <f>IF(K123=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O123" s="8">
+        <v>0</v>
+      </c>
+      <c r="P123" s="8" t="str">
+        <f>IF(O123&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q123" s="8">
+        <v>0</v>
+      </c>
+      <c r="R123" s="8" t="str">
+        <f>IF(Q123&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A124" s="5">
+        <v>44506</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C124" s="6">
+        <v>6</v>
+      </c>
+      <c r="D124" s="7">
+        <v>0.8305555555555556</v>
+      </c>
+      <c r="E124" s="7">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="F124" s="7">
+        <f>+E124-D124</f>
+        <v>4.1666666666666519E-3</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K124" s="8">
+        <v>5</v>
+      </c>
+      <c r="L124" s="8">
+        <v>6</v>
+      </c>
+      <c r="M124" s="8">
+        <f>+L124+K124</f>
+        <v>11</v>
+      </c>
+      <c r="N124" s="8" t="str">
+        <f>IF(K124=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O124" s="8">
+        <v>0</v>
+      </c>
+      <c r="P124" s="8" t="str">
+        <f>IF(O124&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q124" s="8">
+        <v>0</v>
+      </c>
+      <c r="R124" s="8" t="str">
+        <f>IF(Q124&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A125" s="5">
+        <v>44506</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125" s="6">
+        <v>27</v>
+      </c>
+      <c r="D125" s="7">
+        <v>0.8618055555555556</v>
+      </c>
+      <c r="E125" s="7">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="F125" s="7">
+        <f>+E125-D125</f>
+        <v>6.2499999999998668E-3</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K125" s="8">
+        <v>6</v>
+      </c>
+      <c r="L125" s="8">
+        <v>6</v>
+      </c>
+      <c r="M125" s="8">
+        <f>+L125+K125</f>
+        <v>12</v>
+      </c>
+      <c r="N125" s="8" t="str">
+        <f>IF(K125=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O125" s="8">
+        <v>0</v>
+      </c>
+      <c r="P125" s="8" t="str">
+        <f>IF(O125&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q125" s="8">
+        <v>0</v>
+      </c>
+      <c r="R125" s="8" t="str">
+        <f>IF(Q125&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A126" s="5">
+        <v>44507</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126" s="6">
+        <v>6</v>
+      </c>
+      <c r="D126" s="7">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="E126" s="7">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="F126" s="7">
+        <f>+E126-D126</f>
+        <v>6.9444444444438647E-4</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K126" s="8">
+        <v>1</v>
+      </c>
+      <c r="L126" s="8">
+        <v>2</v>
+      </c>
+      <c r="M126" s="8">
+        <f>+L126+K126</f>
+        <v>3</v>
+      </c>
+      <c r="N126" s="8" t="str">
+        <f>IF(K126=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O126" s="8">
+        <v>0</v>
+      </c>
+      <c r="P126" s="8" t="str">
+        <f>IF(O126&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q126" s="8">
+        <v>0</v>
+      </c>
+      <c r="R126" s="8" t="str">
+        <f>IF(Q126&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A127" s="5">
+        <v>44507</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" s="6">
+        <v>21</v>
+      </c>
+      <c r="D127" s="7">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="E127" s="7">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="F127" s="7">
+        <f>+E127-D127</f>
+        <v>0</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K127" s="8">
+        <v>0</v>
+      </c>
+      <c r="L127" s="8">
+        <v>3</v>
+      </c>
+      <c r="M127" s="8">
+        <f>+L127+K127</f>
+        <v>3</v>
+      </c>
+      <c r="N127" s="8" t="str">
+        <f>IF(K127=0,"Lectura","Interacción")</f>
+        <v>Lectura</v>
+      </c>
+      <c r="O127" s="8">
+        <v>0</v>
+      </c>
+      <c r="P127" s="8" t="str">
+        <f>IF(O127&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q127" s="8">
+        <v>0</v>
+      </c>
+      <c r="R127" s="8" t="str">
+        <f>IF(Q127&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A128" s="5">
+        <v>44507</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C128" s="6">
+        <v>6</v>
+      </c>
+      <c r="D128" s="7">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="E128" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="F128" s="7">
+        <f>+E128-D128</f>
+        <v>6.9444444444444198E-4</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J128" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K128" s="8">
+        <v>1</v>
+      </c>
+      <c r="L128" s="8">
+        <v>1</v>
+      </c>
+      <c r="M128" s="8">
+        <f>+L128+K128</f>
+        <v>2</v>
+      </c>
+      <c r="N128" s="8" t="str">
+        <f>IF(K128=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O128" s="8">
+        <v>0</v>
+      </c>
+      <c r="P128" s="8" t="str">
+        <f>IF(O128&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q128" s="8">
+        <v>0</v>
+      </c>
+      <c r="R128" s="8" t="str">
+        <f>IF(Q128&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A129" s="5">
+        <v>44507</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129" s="6">
+        <v>6</v>
+      </c>
+      <c r="D129" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E129" s="7">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="F129" s="7">
+        <f>+E129-D129</f>
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K129" s="8">
+        <v>4</v>
+      </c>
+      <c r="L129" s="8">
+        <v>3</v>
+      </c>
+      <c r="M129" s="8">
+        <f>+L129+K129</f>
+        <v>7</v>
+      </c>
+      <c r="N129" s="8" t="str">
+        <f>IF(K129=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O129" s="8">
+        <v>0</v>
+      </c>
+      <c r="P129" s="8" t="str">
+        <f>IF(O129&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q129" s="8">
+        <v>0</v>
+      </c>
+      <c r="R129" s="8" t="str">
+        <f>IF(Q129&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A130" s="5">
+        <v>44507</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130" s="6">
+        <v>21</v>
+      </c>
+      <c r="D130" s="7">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="E130" s="7">
+        <v>0.8520833333333333</v>
+      </c>
+      <c r="F130" s="7">
+        <f>+E130-D130</f>
+        <v>4.7222222222222165E-2</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K130" s="8">
+        <v>3</v>
+      </c>
+      <c r="L130" s="8">
+        <v>15</v>
+      </c>
+      <c r="M130" s="8">
+        <f>+L130+K130</f>
+        <v>18</v>
+      </c>
+      <c r="N130" s="8" t="str">
+        <f>IF(K130=0,"Lectura","Interacción")</f>
+        <v>Interacción</v>
+      </c>
+      <c r="O130" s="8">
+        <v>0</v>
+      </c>
+      <c r="P130" s="8" t="str">
+        <f>IF(O130&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q130" s="8">
+        <v>0</v>
+      </c>
+      <c r="R130" s="8" t="str">
+        <f>IF(Q130&gt;0,"Si","No")</f>
+        <v>No</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
